--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_8_19.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_8_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-60489.04680326497</v>
+        <v>-61188.45691045727</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1868545.583905884</v>
+        <v>1868545.583905886</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736556</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94.21910266041215</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>94.21910266041215</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>10.00967878293136</v>
+        <v>82.98818562329045</v>
       </c>
       <c r="G2" t="n">
-        <v>11.94294668035388</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>94.21910266041215</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>61.03556016000575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -744,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>94.21910266041215</v>
+        <v>15.28972316645081</v>
       </c>
       <c r="F3" t="n">
-        <v>94.21910266041215</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="G3" t="n">
-        <v>82.98818562329102</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>94.21910266041215</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>94.21910266041215</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>44.83621769044312</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>94.21910266041215</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>23.53151942332144</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="X4" t="n">
-        <v>94.21910266041215</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>82.98818562329046</v>
       </c>
       <c r="F5" t="n">
-        <v>94.21910266041215</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="G5" t="n">
-        <v>94.21910266041215</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>94.21910266041215</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>82.988185623291</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>82.98818562329045</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.80175940728733</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>94.21910266041215</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>94.21910266041215</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>94.21910266041215</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>82.98818562329045</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>82.98818562329097</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>94.21910266041215</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="U7" t="n">
-        <v>94.21910266041215</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>94.21910266041215</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>94.21910266041152</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>96.39034613217986</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>281.7470317481299</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>319.876284909321</v>
+        <v>319.8762849093202</v>
       </c>
       <c r="G8" t="n">
-        <v>319.876284909321</v>
+        <v>319.8762849093202</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>319.8762849093202</v>
       </c>
       <c r="Y8" t="n">
-        <v>319.876284909321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
@@ -1269,16 +1269,16 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>158.8731078077223</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>26.04410243920215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>117.6423617530316</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
         <v>59.456666199969</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>128.5900859387891</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>301.5058001214171</v>
+        <v>36.12302459376045</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>280.4984211236268</v>
       </c>
       <c r="E11" t="n">
-        <v>302.2405586935324</v>
+        <v>302.2405586935323</v>
       </c>
       <c r="F11" t="n">
-        <v>321.4123747815096</v>
+        <v>321.4123747815095</v>
       </c>
       <c r="G11" t="n">
-        <v>322.9636916056461</v>
+        <v>322.963691605646</v>
       </c>
       <c r="H11" t="n">
-        <v>236.984101227952</v>
+        <v>236.9841012279519</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>67.76655404901216</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>88.05567153202352</v>
+        <v>88.05567153202333</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>131.8460619815677</v>
       </c>
       <c r="U11" t="n">
-        <v>22.64124959913564</v>
+        <v>163.7086228358611</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>245.0121773615962</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>270.3122768395531</v>
       </c>
       <c r="X11" t="n">
-        <v>289.6125350722998</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>301.0091328684986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>127.2368531361802</v>
       </c>
       <c r="H12" t="n">
-        <v>96.96477373240373</v>
+        <v>96.9647737324037</v>
       </c>
       <c r="I12" t="n">
-        <v>60.66232013214984</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>46.49806561112362</v>
+        <v>46.49806561112343</v>
       </c>
       <c r="S12" t="n">
         <v>147.4755605575067</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.12251099611422</v>
+        <v>93.12251099611416</v>
       </c>
       <c r="C13" t="n">
-        <v>79.3225058415147</v>
+        <v>79.32250584151464</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>62.94387023909303</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>61.89162009487248</v>
       </c>
       <c r="F13" t="n">
-        <v>62.35854442305885</v>
+        <v>62.35854442305879</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>78.46191704206583</v>
       </c>
       <c r="H13" t="n">
-        <v>67.65833440264907</v>
+        <v>67.65833440264899</v>
       </c>
       <c r="I13" t="n">
-        <v>49.0113465106237</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>119.9895445490431</v>
       </c>
       <c r="T13" t="n">
-        <v>141.5178128501455</v>
+        <v>4.498373775981517</v>
       </c>
       <c r="U13" t="n">
         <v>195.7116878360598</v>
       </c>
       <c r="V13" t="n">
-        <v>169.5306473957398</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>194.6975334663531</v>
+        <v>194.697533466353</v>
       </c>
       <c r="X13" t="n">
-        <v>140.3426354621562</v>
+        <v>140.3426354621561</v>
       </c>
       <c r="Y13" t="n">
-        <v>98.9430221627678</v>
+        <v>131.2175032182238</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>301.5058001214172</v>
+        <v>106.0191480664215</v>
       </c>
       <c r="C14" t="n">
         <v>289.5171170790989</v>
       </c>
       <c r="D14" t="n">
-        <v>280.4984211236269</v>
+        <v>280.4984211236268</v>
       </c>
       <c r="E14" t="n">
-        <v>302.2405586935324</v>
+        <v>302.2405586935323</v>
       </c>
       <c r="F14" t="n">
-        <v>321.4123747815096</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>322.9636916056461</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>236.9841012279519</v>
       </c>
       <c r="I14" t="n">
-        <v>67.76655404901221</v>
+        <v>67.76655404901216</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>131.8460619815677</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1667,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>270.3122768395532</v>
+        <v>270.3122768395531</v>
       </c>
       <c r="X14" t="n">
-        <v>200.8152390878239</v>
+        <v>289.6125350722997</v>
       </c>
       <c r="Y14" t="n">
-        <v>301.0091328684986</v>
+        <v>301.0091328684985</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>83.83038370742152</v>
+        <v>93.12251099611416</v>
       </c>
       <c r="C16" t="n">
-        <v>79.32250584151471</v>
+        <v>79.32250584151464</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>62.94387023909303</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>62.35854442305886</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>67.65833440264906</v>
+        <v>67.65833440264899</v>
       </c>
       <c r="I16" t="n">
-        <v>49.01134651062365</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.72563515054821</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>119.9895445490431</v>
       </c>
       <c r="T16" t="n">
-        <v>141.5178128501456</v>
+        <v>141.5178128501455</v>
       </c>
       <c r="U16" t="n">
         <v>195.7116878360598</v>
       </c>
       <c r="V16" t="n">
-        <v>169.5306473957398</v>
+        <v>169.5306473957397</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>90.85952855644642</v>
       </c>
       <c r="X16" t="n">
-        <v>140.3426354621562</v>
+        <v>140.3426354621561</v>
       </c>
       <c r="Y16" t="n">
-        <v>131.2175032182239</v>
+        <v>131.2175032182238</v>
       </c>
     </row>
     <row r="17">
@@ -1847,10 +1847,10 @@
         <v>212.5346166149173</v>
       </c>
       <c r="D17" t="n">
-        <v>203.5159206594453</v>
+        <v>203.5159206594459</v>
       </c>
       <c r="E17" t="n">
-        <v>225.2580582293527</v>
+        <v>225.2580582293508</v>
       </c>
       <c r="F17" t="n">
         <v>244.429874317328</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.07317106784178</v>
+        <v>11.07317106784181</v>
       </c>
       <c r="T17" t="n">
         <v>54.86356151738615</v>
@@ -1938,10 +1938,10 @@
         <v>127.2368531361802</v>
       </c>
       <c r="H18" t="n">
-        <v>96.96477373240369</v>
+        <v>96.9647737324037</v>
       </c>
       <c r="I18" t="n">
-        <v>60.66232013214972</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>46.49806561112339</v>
+        <v>46.49806561112366</v>
       </c>
       <c r="S18" t="n">
-        <v>147.4755605575066</v>
+        <v>147.4755605575067</v>
       </c>
       <c r="T18" t="n">
         <v>185.9745311655613</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>93.18671644379445</v>
       </c>
       <c r="S19" t="n">
-        <v>43.00704408486154</v>
+        <v>43.00704408486155</v>
       </c>
       <c r="T19" t="n">
         <v>64.53531238596393</v>
       </c>
       <c r="U19" t="n">
-        <v>211.9159038156732</v>
+        <v>118.7291873718782</v>
       </c>
       <c r="V19" t="n">
         <v>92.54814693155822</v>
@@ -2093,7 +2093,7 @@
         <v>244.429874317328</v>
       </c>
       <c r="G20" t="n">
-        <v>245.9811911414651</v>
+        <v>245.9811911414645</v>
       </c>
       <c r="H20" t="n">
         <v>160.0016007637703</v>
@@ -2132,7 +2132,7 @@
         <v>11.0731710678418</v>
       </c>
       <c r="T20" t="n">
-        <v>54.86356151738615</v>
+        <v>54.86356151738616</v>
       </c>
       <c r="U20" t="n">
         <v>86.72612237167962</v>
@@ -2178,7 +2178,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I21" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>46.49806561112366</v>
+        <v>46.49806561112343</v>
       </c>
       <c r="S21" t="n">
         <v>147.4755605575067</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>109.326726975727</v>
+        <v>16.14001053193263</v>
       </c>
       <c r="C22" t="n">
         <v>2.340005377333114</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>93.18671644379431</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I24" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>93.18671644379431</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,13 +2491,13 @@
         <v>1.479416577884314</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>45.84308847931865</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>33.73955730548211</v>
+        <v>33.7395573054821</v>
       </c>
       <c r="S28" t="n">
         <v>102.003466703977</v>
@@ -2792,10 +2792,10 @@
         <v>283.519722276351</v>
       </c>
       <c r="C29" t="n">
-        <v>271.5310392340327</v>
+        <v>271.5310392340328</v>
       </c>
       <c r="D29" t="n">
-        <v>262.5123432785607</v>
+        <v>262.5123432785608</v>
       </c>
       <c r="E29" t="n">
         <v>284.2544808484663</v>
@@ -2810,7 +2810,7 @@
         <v>218.9980233828858</v>
       </c>
       <c r="I29" t="n">
-        <v>49.78047620394608</v>
+        <v>49.78047620394612</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.06959368695726</v>
+        <v>70.06959368695729</v>
       </c>
       <c r="T29" t="n">
         <v>113.8599841365016</v>
@@ -2849,10 +2849,10 @@
         <v>145.7225449907951</v>
       </c>
       <c r="V29" t="n">
-        <v>227.0260995165301</v>
+        <v>227.0260995165302</v>
       </c>
       <c r="W29" t="n">
-        <v>252.326198994487</v>
+        <v>252.3261989944871</v>
       </c>
       <c r="X29" t="n">
         <v>271.6264572272337</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>75.1364331510481</v>
+        <v>75.13643315104812</v>
       </c>
       <c r="C31" t="n">
-        <v>61.33642799644858</v>
+        <v>61.33642799644861</v>
       </c>
       <c r="D31" t="n">
-        <v>44.95779239402697</v>
+        <v>44.957792394027</v>
       </c>
       <c r="E31" t="n">
-        <v>43.90554224980642</v>
+        <v>43.90554224980644</v>
       </c>
       <c r="F31" t="n">
-        <v>44.37246657799272</v>
+        <v>44.37246657799275</v>
       </c>
       <c r="G31" t="n">
-        <v>60.47583919699978</v>
+        <v>60.47583919699981</v>
       </c>
       <c r="H31" t="n">
-        <v>49.67225655758293</v>
+        <v>49.67225655758295</v>
       </c>
       <c r="I31" t="n">
-        <v>31.02526866555751</v>
+        <v>31.02526866555754</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>33.73955730548208</v>
+        <v>33.7395573054821</v>
       </c>
       <c r="S31" t="n">
         <v>102.003466703977</v>
@@ -3010,13 +3010,13 @@
         <v>151.5445695506737</v>
       </c>
       <c r="W31" t="n">
-        <v>176.7114556212869</v>
+        <v>176.711455621287</v>
       </c>
       <c r="X31" t="n">
         <v>122.3565576170901</v>
       </c>
       <c r="Y31" t="n">
-        <v>113.2314253731577</v>
+        <v>113.2314253731578</v>
       </c>
     </row>
     <row r="32">
@@ -3035,13 +3035,13 @@
         <v>203.5159206594452</v>
       </c>
       <c r="E32" t="n">
-        <v>225.2580582293508</v>
+        <v>225.2580582293507</v>
       </c>
       <c r="F32" t="n">
         <v>244.4298743173279</v>
       </c>
       <c r="G32" t="n">
-        <v>245.9811911414645</v>
+        <v>245.9811911414644</v>
       </c>
       <c r="H32" t="n">
         <v>160.0016007637703</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>11.07317106784174</v>
+        <v>11.07317106784171</v>
       </c>
       <c r="T32" t="n">
-        <v>54.8635615173861</v>
+        <v>54.86356151738607</v>
       </c>
       <c r="U32" t="n">
-        <v>86.72612237167957</v>
+        <v>86.72612237167954</v>
       </c>
       <c r="V32" t="n">
         <v>168.0296768974146</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.14001053193257</v>
+        <v>16.14001053193255</v>
       </c>
       <c r="C34" t="n">
-        <v>2.340005377333057</v>
+        <v>2.340005377333028</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.479416577884258</v>
+        <v>1.479416577884229</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>93.18671644379526</v>
       </c>
       <c r="I34" t="n">
-        <v>93.18671644379506</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>43.00704408486149</v>
+        <v>43.00704408486146</v>
       </c>
       <c r="T34" t="n">
-        <v>64.53531238596388</v>
+        <v>64.53531238596385</v>
       </c>
       <c r="U34" t="n">
-        <v>118.7291873718782</v>
+        <v>118.7291873718781</v>
       </c>
       <c r="V34" t="n">
-        <v>92.54814693155816</v>
+        <v>92.54814693155814</v>
       </c>
       <c r="W34" t="n">
         <v>117.7150330021714</v>
       </c>
       <c r="X34" t="n">
-        <v>63.36013499797454</v>
+        <v>63.36013499797451</v>
       </c>
       <c r="Y34" t="n">
-        <v>54.23500275404223</v>
+        <v>54.2350027540422</v>
       </c>
     </row>
     <row r="35">
@@ -3272,13 +3272,13 @@
         <v>203.5159206594452</v>
       </c>
       <c r="E35" t="n">
-        <v>225.2580582293508</v>
+        <v>225.2580582293507</v>
       </c>
       <c r="F35" t="n">
         <v>244.4298743173279</v>
       </c>
       <c r="G35" t="n">
-        <v>245.9811911414645</v>
+        <v>245.9811911414644</v>
       </c>
       <c r="H35" t="n">
         <v>160.0016007637703</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.07317106784174</v>
+        <v>11.07317106784171</v>
       </c>
       <c r="T35" t="n">
-        <v>54.8635615173861</v>
+        <v>54.86356151738607</v>
       </c>
       <c r="U35" t="n">
-        <v>86.72612237167957</v>
+        <v>86.72612237167954</v>
       </c>
       <c r="V35" t="n">
         <v>168.0296768974146</v>
@@ -3363,7 +3363,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I36" t="n">
-        <v>60.66232013214974</v>
+        <v>60.66232013215034</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>46.49806561112366</v>
+        <v>46.49806561112343</v>
       </c>
       <c r="S36" t="n">
         <v>147.4755605575067</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.14001053193257</v>
+        <v>16.14001053193255</v>
       </c>
       <c r="C37" t="n">
-        <v>2.340005377333057</v>
+        <v>2.340005377333028</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.479416577884258</v>
+        <v>1.479416577884229</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>136.1937605286566</v>
+        <v>43.00704408486146</v>
       </c>
       <c r="T37" t="n">
-        <v>64.53531238596388</v>
+        <v>64.53531238596385</v>
       </c>
       <c r="U37" t="n">
-        <v>118.7291873718782</v>
+        <v>118.7291873718781</v>
       </c>
       <c r="V37" t="n">
-        <v>92.54814693155816</v>
+        <v>185.7348633753535</v>
       </c>
       <c r="W37" t="n">
         <v>117.7150330021714</v>
       </c>
       <c r="X37" t="n">
-        <v>63.36013499797454</v>
+        <v>63.36013499797451</v>
       </c>
       <c r="Y37" t="n">
-        <v>54.23500275404223</v>
+        <v>54.2350027540422</v>
       </c>
     </row>
     <row r="38">
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>23.80540818138466</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>64.53531238596393</v>
       </c>
       <c r="U40" t="n">
-        <v>188.1104956342881</v>
+        <v>211.9159038156726</v>
       </c>
       <c r="V40" t="n">
         <v>92.54814693155822</v>
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>224.5232996572355</v>
+        <v>224.5232996572356</v>
       </c>
       <c r="C41" t="n">
-        <v>212.5346166149172</v>
+        <v>212.5346166149173</v>
       </c>
       <c r="D41" t="n">
-        <v>203.5159206594452</v>
+        <v>203.5159206594453</v>
       </c>
       <c r="E41" t="n">
-        <v>225.2580582293507</v>
+        <v>225.2580582293508</v>
       </c>
       <c r="F41" t="n">
-        <v>244.4298743173279</v>
+        <v>244.429874317328</v>
       </c>
       <c r="G41" t="n">
-        <v>245.9811911414644</v>
+        <v>245.9811911414645</v>
       </c>
       <c r="H41" t="n">
         <v>160.0016007637703</v>
@@ -3785,28 +3785,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.07317106784171</v>
+        <v>11.0731710678418</v>
       </c>
       <c r="T41" t="n">
-        <v>54.86356151738607</v>
+        <v>54.86356151738616</v>
       </c>
       <c r="U41" t="n">
-        <v>86.72612237167954</v>
+        <v>86.72612237167962</v>
       </c>
       <c r="V41" t="n">
-        <v>168.0296768974146</v>
+        <v>168.0296768974147</v>
       </c>
       <c r="W41" t="n">
-        <v>193.3297763753715</v>
+        <v>193.3297763753716</v>
       </c>
       <c r="X41" t="n">
-        <v>212.6300346081181</v>
+        <v>212.6300346081182</v>
       </c>
       <c r="Y41" t="n">
-        <v>224.0266324043169</v>
+        <v>224.026632404317</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>46.49806561112343</v>
+        <v>46.49806561112366</v>
       </c>
       <c r="S42" t="n">
         <v>147.4755605575067</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.14001053193255</v>
+        <v>16.14001053193263</v>
       </c>
       <c r="C43" t="n">
-        <v>2.340005377333028</v>
+        <v>2.340005377333114</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.479416577884229</v>
+        <v>1.479416577884314</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>93.18671644379431</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>136.1937605286567</v>
+        <v>43.00704408486155</v>
       </c>
       <c r="T43" t="n">
-        <v>64.53531238596385</v>
+        <v>64.53531238596393</v>
       </c>
       <c r="U43" t="n">
-        <v>118.7291873718781</v>
+        <v>118.7291873718782</v>
       </c>
       <c r="V43" t="n">
-        <v>92.54814693155814</v>
+        <v>92.54814693155822</v>
       </c>
       <c r="W43" t="n">
-        <v>117.7150330021714</v>
+        <v>117.7150330021715</v>
       </c>
       <c r="X43" t="n">
-        <v>63.36013499797451</v>
+        <v>63.3601349979746</v>
       </c>
       <c r="Y43" t="n">
-        <v>54.2350027540422</v>
+        <v>54.23500275404228</v>
       </c>
     </row>
     <row r="44">
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.5232996572355</v>
+        <v>224.5232996572356</v>
       </c>
       <c r="C44" t="n">
-        <v>212.5346166149172</v>
+        <v>212.5346166149173</v>
       </c>
       <c r="D44" t="n">
-        <v>203.5159206594452</v>
+        <v>203.5159206594453</v>
       </c>
       <c r="E44" t="n">
-        <v>225.2580582293507</v>
+        <v>225.2580582293508</v>
       </c>
       <c r="F44" t="n">
-        <v>244.4298743173279</v>
+        <v>244.429874317328</v>
       </c>
       <c r="G44" t="n">
-        <v>245.9811911414644</v>
+        <v>245.9811911414645</v>
       </c>
       <c r="H44" t="n">
         <v>160.0016007637703</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.07317106784171</v>
+        <v>11.07317106784181</v>
       </c>
       <c r="T44" t="n">
-        <v>54.86356151738607</v>
+        <v>54.86356151738615</v>
       </c>
       <c r="U44" t="n">
-        <v>86.72612237167954</v>
+        <v>86.72612237167962</v>
       </c>
       <c r="V44" t="n">
-        <v>168.0296768974146</v>
+        <v>168.0296768974147</v>
       </c>
       <c r="W44" t="n">
-        <v>193.3297763753715</v>
+        <v>193.3297763753716</v>
       </c>
       <c r="X44" t="n">
-        <v>212.6300346081181</v>
+        <v>212.6300346081182</v>
       </c>
       <c r="Y44" t="n">
-        <v>224.0266324043169</v>
+        <v>224.026632404317</v>
       </c>
     </row>
     <row r="45">
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.14001053193255</v>
+        <v>16.14001053193263</v>
       </c>
       <c r="C46" t="n">
-        <v>2.340005377333028</v>
+        <v>2.340005377333114</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.479416577884229</v>
+        <v>1.479416577884314</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4177,31 +4177,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>23.80540818138466</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>43.00704408486146</v>
+        <v>43.00704408486155</v>
       </c>
       <c r="T46" t="n">
-        <v>64.53531238596385</v>
+        <v>157.7220288297584</v>
       </c>
       <c r="U46" t="n">
-        <v>188.1104956342888</v>
+        <v>118.7291873718782</v>
       </c>
       <c r="V46" t="n">
-        <v>92.54814693155814</v>
+        <v>92.54814693155822</v>
       </c>
       <c r="W46" t="n">
-        <v>117.7150330021714</v>
+        <v>117.7150330021715</v>
       </c>
       <c r="X46" t="n">
-        <v>63.36013499797451</v>
+        <v>63.3601349979746</v>
       </c>
       <c r="Y46" t="n">
-        <v>54.2350027540422</v>
+        <v>54.23500275404228</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>124.8827081357596</v>
+        <v>281.7055998735536</v>
       </c>
       <c r="C2" t="n">
-        <v>29.71189736766655</v>
+        <v>281.7055998735536</v>
       </c>
       <c r="D2" t="n">
-        <v>29.71189736766655</v>
+        <v>186.5347891054612</v>
       </c>
       <c r="E2" t="n">
-        <v>29.71189736766655</v>
+        <v>186.5347891054612</v>
       </c>
       <c r="F2" t="n">
-        <v>19.60111071824094</v>
+        <v>102.7083389809254</v>
       </c>
       <c r="G2" t="n">
-        <v>7.537528212832972</v>
+        <v>7.537528212832922</v>
       </c>
       <c r="H2" t="n">
-        <v>7.537528212832972</v>
+        <v>7.537528212832922</v>
       </c>
       <c r="I2" t="n">
-        <v>7.537528212832972</v>
+        <v>7.537528212832922</v>
       </c>
       <c r="J2" t="n">
-        <v>7.537528212832972</v>
+        <v>7.537528212832922</v>
       </c>
       <c r="K2" t="n">
-        <v>7.537528212832972</v>
+        <v>7.537528212832922</v>
       </c>
       <c r="L2" t="n">
-        <v>7.537528212832972</v>
+        <v>100.8144398466403</v>
       </c>
       <c r="M2" t="n">
-        <v>7.537528212832972</v>
+        <v>100.8144398466403</v>
       </c>
       <c r="N2" t="n">
-        <v>97.04567574022451</v>
+        <v>194.0913514804477</v>
       </c>
       <c r="O2" t="n">
-        <v>190.3225873740325</v>
+        <v>287.3682631142551</v>
       </c>
       <c r="P2" t="n">
-        <v>283.5994990078406</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="Q2" t="n">
-        <v>376.8764106416486</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="R2" t="n">
-        <v>376.8764106416486</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="S2" t="n">
-        <v>376.8764106416486</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="T2" t="n">
-        <v>376.8764106416486</v>
+        <v>281.7055998735536</v>
       </c>
       <c r="U2" t="n">
-        <v>376.8764106416486</v>
+        <v>281.7055998735536</v>
       </c>
       <c r="V2" t="n">
-        <v>376.8764106416486</v>
+        <v>281.7055998735536</v>
       </c>
       <c r="W2" t="n">
-        <v>376.8764106416486</v>
+        <v>281.7055998735536</v>
       </c>
       <c r="X2" t="n">
-        <v>281.7055998735555</v>
+        <v>281.7055998735536</v>
       </c>
       <c r="Y2" t="n">
-        <v>220.0535189038527</v>
+        <v>281.7055998735536</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>281.7055998735555</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="C3" t="n">
-        <v>281.7055998735555</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="D3" t="n">
-        <v>281.7055998735555</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="E3" t="n">
-        <v>186.5347891054624</v>
+        <v>361.4322458270493</v>
       </c>
       <c r="F3" t="n">
-        <v>91.36397833736935</v>
+        <v>266.2614350589569</v>
       </c>
       <c r="G3" t="n">
-        <v>7.537528212832972</v>
+        <v>171.0906242908644</v>
       </c>
       <c r="H3" t="n">
-        <v>7.537528212832972</v>
+        <v>75.91981352277193</v>
       </c>
       <c r="I3" t="n">
-        <v>7.537528212832972</v>
+        <v>7.537528212832922</v>
       </c>
       <c r="J3" t="n">
-        <v>67.79167474593912</v>
+        <v>67.79167474593906</v>
       </c>
       <c r="K3" t="n">
-        <v>161.0685863797472</v>
+        <v>161.0685863797465</v>
       </c>
       <c r="L3" t="n">
-        <v>254.3454980135552</v>
+        <v>254.3454980135539</v>
       </c>
       <c r="M3" t="n">
-        <v>254.3454980135552</v>
+        <v>254.3454980135539</v>
       </c>
       <c r="N3" t="n">
-        <v>254.3454980135552</v>
+        <v>254.3454980135539</v>
       </c>
       <c r="O3" t="n">
-        <v>283.5994990078406</v>
+        <v>254.3454980135539</v>
       </c>
       <c r="P3" t="n">
-        <v>283.5994990078406</v>
+        <v>283.5994990078387</v>
       </c>
       <c r="Q3" t="n">
-        <v>376.8764106416486</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="R3" t="n">
-        <v>376.8764106416486</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="S3" t="n">
-        <v>376.8764106416486</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="T3" t="n">
-        <v>376.8764106416486</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="U3" t="n">
-        <v>376.8764106416486</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="V3" t="n">
-        <v>281.7055998735555</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="W3" t="n">
-        <v>281.7055998735555</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="X3" t="n">
-        <v>281.7055998735555</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="Y3" t="n">
-        <v>281.7055998735555</v>
+        <v>376.8764106416461</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147.9974477591514</v>
+        <v>257.9363883348451</v>
       </c>
       <c r="C4" t="n">
-        <v>52.82663699105835</v>
+        <v>257.9363883348451</v>
       </c>
       <c r="D4" t="n">
-        <v>7.537528212832972</v>
+        <v>162.7655775667527</v>
       </c>
       <c r="E4" t="n">
-        <v>7.537528212832972</v>
+        <v>67.5947667986602</v>
       </c>
       <c r="F4" t="n">
-        <v>7.537528212832972</v>
+        <v>67.5947667986602</v>
       </c>
       <c r="G4" t="n">
-        <v>7.537528212832972</v>
+        <v>67.5947667986602</v>
       </c>
       <c r="H4" t="n">
-        <v>7.537528212832972</v>
+        <v>67.5947667986602</v>
       </c>
       <c r="I4" t="n">
-        <v>7.537528212832972</v>
+        <v>67.5947667986602</v>
       </c>
       <c r="J4" t="n">
-        <v>7.537528212832972</v>
+        <v>7.537528212832922</v>
       </c>
       <c r="K4" t="n">
-        <v>41.14171595747639</v>
+        <v>7.537528212832922</v>
       </c>
       <c r="L4" t="n">
-        <v>97.04567574022451</v>
+        <v>34.07719201208607</v>
       </c>
       <c r="M4" t="n">
-        <v>190.3225873740325</v>
+        <v>127.3541036458935</v>
       </c>
       <c r="N4" t="n">
-        <v>283.5994990078406</v>
+        <v>220.6310152797009</v>
       </c>
       <c r="O4" t="n">
-        <v>376.8764106416486</v>
+        <v>313.9079269135083</v>
       </c>
       <c r="P4" t="n">
-        <v>376.8764106416486</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="Q4" t="n">
-        <v>338.3390692953376</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="R4" t="n">
-        <v>338.3390692953376</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="S4" t="n">
-        <v>338.3390692953376</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="T4" t="n">
-        <v>243.1682585272445</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="U4" t="n">
-        <v>243.1682585272445</v>
+        <v>353.1071991029376</v>
       </c>
       <c r="V4" t="n">
-        <v>243.1682585272445</v>
+        <v>353.1071991029376</v>
       </c>
       <c r="W4" t="n">
-        <v>243.1682585272445</v>
+        <v>257.9363883348451</v>
       </c>
       <c r="X4" t="n">
-        <v>147.9974477591514</v>
+        <v>257.9363883348451</v>
       </c>
       <c r="Y4" t="n">
-        <v>147.9974477591514</v>
+        <v>257.9363883348451</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>197.8791497490191</v>
+        <v>281.7055998735536</v>
       </c>
       <c r="C5" t="n">
-        <v>197.8791497490191</v>
+        <v>281.7055998735536</v>
       </c>
       <c r="D5" t="n">
-        <v>197.8791497490191</v>
+        <v>281.7055998735536</v>
       </c>
       <c r="E5" t="n">
-        <v>197.8791497490191</v>
+        <v>197.8791497490178</v>
       </c>
       <c r="F5" t="n">
-        <v>102.7083389809261</v>
+        <v>102.7083389809254</v>
       </c>
       <c r="G5" t="n">
-        <v>7.537528212832972</v>
+        <v>7.537528212832922</v>
       </c>
       <c r="H5" t="n">
-        <v>7.537528212832972</v>
+        <v>7.537528212832922</v>
       </c>
       <c r="I5" t="n">
-        <v>7.537528212832972</v>
+        <v>7.537528212832922</v>
       </c>
       <c r="J5" t="n">
-        <v>79.53607248563863</v>
+        <v>7.537528212832922</v>
       </c>
       <c r="K5" t="n">
-        <v>79.53607248563863</v>
+        <v>7.537528212832922</v>
       </c>
       <c r="L5" t="n">
-        <v>172.8129841194466</v>
+        <v>97.04567574022388</v>
       </c>
       <c r="M5" t="n">
-        <v>266.0898957532547</v>
+        <v>190.3225873740313</v>
       </c>
       <c r="N5" t="n">
-        <v>359.3668073870627</v>
+        <v>283.5994990078387</v>
       </c>
       <c r="O5" t="n">
-        <v>359.3668073870627</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="P5" t="n">
-        <v>376.8764106416486</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="Q5" t="n">
-        <v>376.8764106416486</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="R5" t="n">
-        <v>376.8764106416486</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="S5" t="n">
-        <v>376.8764106416486</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="T5" t="n">
-        <v>376.8764106416486</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="U5" t="n">
-        <v>376.8764106416486</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="V5" t="n">
-        <v>281.7055998735555</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="W5" t="n">
-        <v>197.8791497490191</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="X5" t="n">
-        <v>197.8791497490191</v>
+        <v>281.7055998735536</v>
       </c>
       <c r="Y5" t="n">
-        <v>197.8791497490191</v>
+        <v>281.7055998735536</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31.57970943231513</v>
+        <v>281.7055998735536</v>
       </c>
       <c r="C6" t="n">
-        <v>31.57970943231513</v>
+        <v>186.5347891054612</v>
       </c>
       <c r="D6" t="n">
-        <v>31.57970943231513</v>
+        <v>91.36397833736874</v>
       </c>
       <c r="E6" t="n">
-        <v>31.57970943231513</v>
+        <v>7.537528212832922</v>
       </c>
       <c r="F6" t="n">
-        <v>31.57970943231513</v>
+        <v>7.537528212832922</v>
       </c>
       <c r="G6" t="n">
-        <v>31.57970943231513</v>
+        <v>7.537528212832922</v>
       </c>
       <c r="H6" t="n">
-        <v>31.57970943231513</v>
+        <v>7.537528212832922</v>
       </c>
       <c r="I6" t="n">
-        <v>7.537528212832972</v>
+        <v>7.537528212832922</v>
       </c>
       <c r="J6" t="n">
-        <v>67.79167474593912</v>
+        <v>67.79167474593906</v>
       </c>
       <c r="K6" t="n">
-        <v>161.0685863797472</v>
+        <v>161.0685863797465</v>
       </c>
       <c r="L6" t="n">
-        <v>161.0685863797472</v>
+        <v>254.3454980135539</v>
       </c>
       <c r="M6" t="n">
-        <v>190.3225873740325</v>
+        <v>254.3454980135539</v>
       </c>
       <c r="N6" t="n">
-        <v>190.3225873740325</v>
+        <v>254.3454980135539</v>
       </c>
       <c r="O6" t="n">
-        <v>283.5994990078406</v>
+        <v>347.6224096473613</v>
       </c>
       <c r="P6" t="n">
-        <v>376.8764106416486</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="Q6" t="n">
-        <v>376.8764106416486</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="R6" t="n">
-        <v>317.0921417365944</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="S6" t="n">
-        <v>317.0921417365944</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="T6" t="n">
-        <v>221.9213309685013</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="U6" t="n">
-        <v>126.7505202004082</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="V6" t="n">
-        <v>31.57970943231513</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="W6" t="n">
-        <v>31.57970943231513</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="X6" t="n">
-        <v>31.57970943231513</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="Y6" t="n">
-        <v>31.57970943231513</v>
+        <v>376.8764106416461</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.537528212832972</v>
+        <v>7.537528212832922</v>
       </c>
       <c r="C7" t="n">
-        <v>7.537528212832972</v>
+        <v>7.537528212832922</v>
       </c>
       <c r="D7" t="n">
-        <v>7.537528212832972</v>
+        <v>7.537528212832922</v>
       </c>
       <c r="E7" t="n">
-        <v>7.537528212832972</v>
+        <v>7.537528212832922</v>
       </c>
       <c r="F7" t="n">
-        <v>7.537528212832972</v>
+        <v>7.537528212832922</v>
       </c>
       <c r="G7" t="n">
-        <v>7.537528212832972</v>
+        <v>7.537528212832922</v>
       </c>
       <c r="H7" t="n">
-        <v>7.537528212832972</v>
+        <v>7.537528212832922</v>
       </c>
       <c r="I7" t="n">
-        <v>7.537528212832972</v>
+        <v>7.537528212832922</v>
       </c>
       <c r="J7" t="n">
-        <v>7.537528212832972</v>
+        <v>7.537528212832922</v>
       </c>
       <c r="K7" t="n">
-        <v>7.537528212832972</v>
+        <v>7.537528212832922</v>
       </c>
       <c r="L7" t="n">
-        <v>97.04567574022451</v>
+        <v>100.8144398466403</v>
       </c>
       <c r="M7" t="n">
-        <v>190.3225873740325</v>
+        <v>194.0913514804477</v>
       </c>
       <c r="N7" t="n">
-        <v>283.5994990078406</v>
+        <v>287.3682631142551</v>
       </c>
       <c r="O7" t="n">
-        <v>376.8764106416486</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="P7" t="n">
-        <v>376.8764106416486</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="Q7" t="n">
-        <v>376.8764106416486</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="R7" t="n">
-        <v>293.0499605171123</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="S7" t="n">
-        <v>197.8791497490191</v>
+        <v>376.8764106416461</v>
       </c>
       <c r="T7" t="n">
-        <v>197.8791497490191</v>
+        <v>281.7055998735536</v>
       </c>
       <c r="U7" t="n">
-        <v>102.7083389809261</v>
+        <v>281.7055998735536</v>
       </c>
       <c r="V7" t="n">
-        <v>7.537528212832972</v>
+        <v>281.7055998735536</v>
       </c>
       <c r="W7" t="n">
-        <v>7.537528212832972</v>
+        <v>281.7055998735536</v>
       </c>
       <c r="X7" t="n">
-        <v>7.537528212832972</v>
+        <v>186.5347891054612</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.537528212832972</v>
+        <v>91.36397833736874</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>956.3977811430203</v>
+        <v>671.8048197812714</v>
       </c>
       <c r="C8" t="n">
-        <v>956.3977811430203</v>
+        <v>671.8048197812714</v>
       </c>
       <c r="D8" t="n">
-        <v>956.3977811430203</v>
+        <v>671.8048197812714</v>
       </c>
       <c r="E8" t="n">
-        <v>671.804819781273</v>
+        <v>671.8048197812714</v>
       </c>
       <c r="F8" t="n">
-        <v>348.6974612870093</v>
+        <v>348.6974612870085</v>
       </c>
       <c r="G8" t="n">
-        <v>25.59010279274568</v>
+        <v>25.59010279274562</v>
       </c>
       <c r="H8" t="n">
-        <v>25.59010279274568</v>
+        <v>25.59010279274562</v>
       </c>
       <c r="I8" t="n">
-        <v>25.59010279274568</v>
+        <v>25.59010279274562</v>
       </c>
       <c r="J8" t="n">
-        <v>25.59010279274568</v>
+        <v>25.59010279274562</v>
       </c>
       <c r="K8" t="n">
-        <v>25.59010279274568</v>
+        <v>25.59010279274562</v>
       </c>
       <c r="L8" t="n">
-        <v>342.2676248529734</v>
+        <v>335.2338829616298</v>
       </c>
       <c r="M8" t="n">
-        <v>657.8230331042223</v>
+        <v>651.9114050218568</v>
       </c>
       <c r="N8" t="n">
-        <v>974.50055516445</v>
+        <v>651.9114050218568</v>
       </c>
       <c r="O8" t="n">
-        <v>1279.505139637284</v>
+        <v>956.9159894946907</v>
       </c>
       <c r="P8" t="n">
-        <v>1279.505139637284</v>
+        <v>1185.072885950744</v>
       </c>
       <c r="Q8" t="n">
-        <v>1279.505139637284</v>
+        <v>1279.505139637281</v>
       </c>
       <c r="R8" t="n">
-        <v>1279.505139637284</v>
+        <v>1279.505139637281</v>
       </c>
       <c r="S8" t="n">
-        <v>1279.505139637284</v>
+        <v>1092.276164267635</v>
       </c>
       <c r="T8" t="n">
-        <v>1279.505139637284</v>
+        <v>1092.276164267635</v>
       </c>
       <c r="U8" t="n">
-        <v>1279.505139637284</v>
+        <v>1092.276164267635</v>
       </c>
       <c r="V8" t="n">
-        <v>1279.505139637284</v>
+        <v>1092.276164267635</v>
       </c>
       <c r="W8" t="n">
-        <v>1279.505139637284</v>
+        <v>1092.276164267635</v>
       </c>
       <c r="X8" t="n">
-        <v>1279.505139637284</v>
+        <v>769.1688057733722</v>
       </c>
       <c r="Y8" t="n">
-        <v>956.3977811430203</v>
+        <v>769.1688057733722</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>25.59010279274568</v>
+        <v>301.3466127125898</v>
       </c>
       <c r="C9" t="n">
-        <v>25.59010279274568</v>
+        <v>301.3466127125898</v>
       </c>
       <c r="D9" t="n">
-        <v>25.59010279274568</v>
+        <v>301.3466127125898</v>
       </c>
       <c r="E9" t="n">
-        <v>25.59010279274568</v>
+        <v>154.3186027694611</v>
       </c>
       <c r="F9" t="n">
-        <v>25.59010279274568</v>
+        <v>154.3186027694611</v>
       </c>
       <c r="G9" t="n">
-        <v>25.59010279274568</v>
+        <v>25.59010279274562</v>
       </c>
       <c r="H9" t="n">
-        <v>25.59010279274568</v>
+        <v>25.59010279274562</v>
       </c>
       <c r="I9" t="n">
-        <v>25.59010279274568</v>
+        <v>25.59010279274562</v>
       </c>
       <c r="J9" t="n">
-        <v>25.59010279274568</v>
+        <v>25.59010279274562</v>
       </c>
       <c r="K9" t="n">
-        <v>25.59010279274568</v>
+        <v>171.7009436710056</v>
       </c>
       <c r="L9" t="n">
-        <v>329.4725734566005</v>
+        <v>488.3784657312326</v>
       </c>
       <c r="M9" t="n">
-        <v>646.1500955168283</v>
+        <v>805.0559877914596</v>
       </c>
       <c r="N9" t="n">
-        <v>962.8276175770561</v>
+        <v>1121.733509851687</v>
       </c>
       <c r="O9" t="n">
-        <v>1279.505139637284</v>
+        <v>1121.733509851687</v>
       </c>
       <c r="P9" t="n">
-        <v>1279.505139637284</v>
+        <v>1121.733509851687</v>
       </c>
       <c r="Q9" t="n">
-        <v>1279.505139637284</v>
+        <v>1279.505139637281</v>
       </c>
       <c r="R9" t="n">
-        <v>1279.505139637284</v>
+        <v>1219.720870732227</v>
       </c>
       <c r="S9" t="n">
-        <v>1126.705652650024</v>
+        <v>1066.921383744967</v>
       </c>
       <c r="T9" t="n">
-        <v>938.0205488160093</v>
+        <v>878.2362799109521</v>
       </c>
       <c r="U9" t="n">
-        <v>719.5257564143194</v>
+        <v>659.7414875092622</v>
       </c>
       <c r="V9" t="n">
-        <v>491.1301338626533</v>
+        <v>659.7414875092622</v>
       </c>
       <c r="W9" t="n">
-        <v>249.8142650959634</v>
+        <v>499.2636008347953</v>
       </c>
       <c r="X9" t="n">
-        <v>51.89727697375795</v>
+        <v>301.3466127125898</v>
       </c>
       <c r="Y9" t="n">
-        <v>25.59010279274568</v>
+        <v>301.3466127125898</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>374.0939793542983</v>
+        <v>389.2230309966205</v>
       </c>
       <c r="C10" t="n">
-        <v>204.4780098159786</v>
+        <v>389.2230309966205</v>
       </c>
       <c r="D10" t="n">
-        <v>204.4780098159786</v>
+        <v>389.2230309966205</v>
       </c>
       <c r="E10" t="n">
-        <v>204.4780098159786</v>
+        <v>389.2230309966205</v>
       </c>
       <c r="F10" t="n">
-        <v>204.4780098159786</v>
+        <v>389.2230309966205</v>
       </c>
       <c r="G10" t="n">
-        <v>204.4780098159786</v>
+        <v>389.2230309966205</v>
       </c>
       <c r="H10" t="n">
-        <v>204.4780098159786</v>
+        <v>229.8503857758944</v>
       </c>
       <c r="I10" t="n">
-        <v>85.64734137857296</v>
+        <v>85.6473413785729</v>
       </c>
       <c r="J10" t="n">
-        <v>25.59010279274568</v>
+        <v>25.59010279274562</v>
       </c>
       <c r="K10" t="n">
-        <v>59.19429053738909</v>
+        <v>59.19429053738904</v>
       </c>
       <c r="L10" t="n">
-        <v>159.8013699376486</v>
+        <v>159.8013699376485</v>
       </c>
       <c r="M10" t="n">
         <v>277.7948760652503</v>
       </c>
       <c r="N10" t="n">
-        <v>396.2172178148507</v>
+        <v>396.2172178148506</v>
       </c>
       <c r="O10" t="n">
-        <v>494.6808643105404</v>
+        <v>494.6808643105403</v>
       </c>
       <c r="P10" t="n">
         <v>557.6493480386781</v>
       </c>
       <c r="Q10" t="n">
-        <v>557.6493480386781</v>
+        <v>519.1120066923671</v>
       </c>
       <c r="R10" t="n">
-        <v>557.6493480386781</v>
+        <v>519.1120066923671</v>
       </c>
       <c r="S10" t="n">
-        <v>557.6493480386781</v>
+        <v>519.1120066923671</v>
       </c>
       <c r="T10" t="n">
-        <v>557.6493480386781</v>
+        <v>519.1120066923671</v>
       </c>
       <c r="U10" t="n">
-        <v>557.6493480386781</v>
+        <v>389.2230309966205</v>
       </c>
       <c r="V10" t="n">
-        <v>557.6493480386781</v>
+        <v>389.2230309966205</v>
       </c>
       <c r="W10" t="n">
-        <v>557.6493480386781</v>
+        <v>389.2230309966205</v>
       </c>
       <c r="X10" t="n">
-        <v>557.6493480386781</v>
+        <v>389.2230309966205</v>
       </c>
       <c r="Y10" t="n">
-        <v>557.6493480386781</v>
+        <v>389.2230309966205</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1529.741945182575</v>
+        <v>1598.193009878547</v>
       </c>
       <c r="C11" t="n">
-        <v>1529.741945182575</v>
+        <v>1598.193009878547</v>
       </c>
       <c r="D11" t="n">
-        <v>1246.410206673861</v>
+        <v>1314.861271369833</v>
       </c>
       <c r="E11" t="n">
-        <v>941.1167130440303</v>
+        <v>1009.567777740002</v>
       </c>
       <c r="F11" t="n">
-        <v>616.4577486182632</v>
+        <v>684.9088133142349</v>
       </c>
       <c r="G11" t="n">
-        <v>290.231797501449</v>
+        <v>358.6828621974207</v>
       </c>
       <c r="H11" t="n">
-        <v>50.85391747321463</v>
+        <v>119.3049821691865</v>
       </c>
       <c r="I11" t="n">
-        <v>50.85391747321463</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J11" t="n">
-        <v>154.9459054532629</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K11" t="n">
-        <v>443.186030248162</v>
+        <v>443.1860302481632</v>
       </c>
       <c r="L11" t="n">
-        <v>850.7433998907096</v>
+        <v>850.7433998907118</v>
       </c>
       <c r="M11" t="n">
-        <v>1310.379159876953</v>
+        <v>1310.379159876956</v>
       </c>
       <c r="N11" t="n">
-        <v>1756.181478599935</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O11" t="n">
-        <v>2124.896977382891</v>
+        <v>2124.896977382889</v>
       </c>
       <c r="P11" t="n">
-        <v>2407.429665198536</v>
+        <v>2407.429665198535</v>
       </c>
       <c r="Q11" t="n">
         <v>2542.695873660731</v>
@@ -5069,22 +5069,22 @@
         <v>2453.750750901111</v>
       </c>
       <c r="T11" t="n">
-        <v>2453.750750901111</v>
+        <v>2320.572910515689</v>
       </c>
       <c r="U11" t="n">
-        <v>2430.880801811075</v>
+        <v>2155.210665226941</v>
       </c>
       <c r="V11" t="n">
-        <v>2430.880801811075</v>
+        <v>1907.723617386945</v>
       </c>
       <c r="W11" t="n">
-        <v>2430.880801811075</v>
+        <v>1634.680913508608</v>
       </c>
       <c r="X11" t="n">
-        <v>2138.342887596631</v>
+        <v>1634.680913508608</v>
       </c>
       <c r="Y11" t="n">
-        <v>1834.293258436532</v>
+        <v>1634.680913508608</v>
       </c>
     </row>
     <row r="12">
@@ -5109,34 +5109,34 @@
         <v>338.5952780800167</v>
       </c>
       <c r="G12" t="n">
-        <v>210.0732042050871</v>
+        <v>210.0732042050868</v>
       </c>
       <c r="H12" t="n">
-        <v>112.12898831377</v>
+        <v>112.1289883137697</v>
       </c>
       <c r="I12" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J12" t="n">
-        <v>50.85391747321462</v>
+        <v>130.2226992162549</v>
       </c>
       <c r="K12" t="n">
-        <v>313.0144261414825</v>
+        <v>392.3832078845233</v>
       </c>
       <c r="L12" t="n">
-        <v>722.7650590219076</v>
+        <v>802.133840764949</v>
       </c>
       <c r="M12" t="n">
-        <v>1259.061235803007</v>
+        <v>1338.430017546049</v>
       </c>
       <c r="N12" t="n">
-        <v>1578.032071547367</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O12" t="n">
-        <v>2018.368674122674</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P12" t="n">
-        <v>2359.09850026296</v>
+        <v>2359.098500262959</v>
       </c>
       <c r="Q12" t="n">
         <v>2542.695873660731</v>
@@ -5145,7 +5145,7 @@
         <v>2495.728130619192</v>
       </c>
       <c r="S12" t="n">
-        <v>2346.762917934842</v>
+        <v>2346.762917934841</v>
       </c>
       <c r="T12" t="n">
         <v>2158.909856151447</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>311.8142519962918</v>
+        <v>467.6587579209457</v>
       </c>
       <c r="C13" t="n">
-        <v>231.6905087220345</v>
+        <v>387.5350146466885</v>
       </c>
       <c r="D13" t="n">
-        <v>231.6905087220345</v>
+        <v>323.9553477385136</v>
       </c>
       <c r="E13" t="n">
-        <v>231.6905087220345</v>
+        <v>261.4385597638951</v>
       </c>
       <c r="F13" t="n">
-        <v>168.7020800118741</v>
+        <v>198.4501310537347</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7020800118741</v>
+        <v>119.1956693950823</v>
       </c>
       <c r="H13" t="n">
-        <v>100.3603280900062</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I13" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J13" t="n">
-        <v>91.69505674979118</v>
+        <v>91.69505674979138</v>
       </c>
       <c r="K13" t="n">
-        <v>232.7169638270787</v>
+        <v>232.7169638270793</v>
       </c>
       <c r="L13" t="n">
-        <v>446.252766631876</v>
+        <v>446.252766631877</v>
       </c>
       <c r="M13" t="n">
-        <v>678.545808312844</v>
+        <v>678.5458083128453</v>
       </c>
       <c r="N13" t="n">
-        <v>910.6354775381731</v>
+        <v>910.635477538175</v>
       </c>
       <c r="O13" t="n">
-        <v>1120.78501887602</v>
+        <v>1120.785018876023</v>
       </c>
       <c r="P13" t="n">
-        <v>1291.979214699441</v>
+        <v>1291.979214699444</v>
       </c>
       <c r="Q13" t="n">
-        <v>1356.123191561278</v>
+        <v>1356.123191561281</v>
       </c>
       <c r="R13" t="n">
-        <v>1356.123191561278</v>
+        <v>1356.123191561281</v>
       </c>
       <c r="S13" t="n">
-        <v>1356.123191561278</v>
+        <v>1234.921631410732</v>
       </c>
       <c r="T13" t="n">
-        <v>1213.17590585406</v>
+        <v>1230.377819515801</v>
       </c>
       <c r="U13" t="n">
-        <v>1015.487332282283</v>
+        <v>1032.689245944023</v>
       </c>
       <c r="V13" t="n">
-        <v>844.2442541047678</v>
+        <v>1032.689245944023</v>
       </c>
       <c r="W13" t="n">
-        <v>647.5800788862293</v>
+        <v>836.0250707254852</v>
       </c>
       <c r="X13" t="n">
-        <v>505.8198410456675</v>
+        <v>694.2648328849235</v>
       </c>
       <c r="Y13" t="n">
-        <v>405.8773944166091</v>
+        <v>561.7219003412631</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1325.030711136629</v>
+        <v>1565.97557785591</v>
       </c>
       <c r="C14" t="n">
-        <v>1032.589178733499</v>
+        <v>1273.53404545278</v>
       </c>
       <c r="D14" t="n">
-        <v>749.2574402247847</v>
+        <v>990.2023069440655</v>
       </c>
       <c r="E14" t="n">
-        <v>443.963946594954</v>
+        <v>684.908813314235</v>
       </c>
       <c r="F14" t="n">
-        <v>119.3049821691866</v>
+        <v>684.908813314235</v>
       </c>
       <c r="G14" t="n">
-        <v>119.3049821691866</v>
+        <v>358.6828621974207</v>
       </c>
       <c r="H14" t="n">
-        <v>119.3049821691866</v>
+        <v>119.3049821691865</v>
       </c>
       <c r="I14" t="n">
         <v>50.85391747321462</v>
@@ -5282,7 +5282,7 @@
         <v>443.1860302481634</v>
       </c>
       <c r="L14" t="n">
-        <v>850.7433998907119</v>
+        <v>850.743399890712</v>
       </c>
       <c r="M14" t="n">
         <v>1310.379159876956</v>
@@ -5306,22 +5306,22 @@
         <v>2542.695873660731</v>
       </c>
       <c r="T14" t="n">
-        <v>2409.518033275309</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="U14" t="n">
-        <v>2409.518033275309</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="V14" t="n">
-        <v>2409.518033275309</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="W14" t="n">
-        <v>2136.475329396972</v>
+        <v>2269.653169782394</v>
       </c>
       <c r="X14" t="n">
-        <v>1933.631653550685</v>
+        <v>1977.11525556795</v>
       </c>
       <c r="Y14" t="n">
-        <v>1629.582024390586</v>
+        <v>1673.065626407851</v>
       </c>
     </row>
     <row r="15">
@@ -5355,16 +5355,16 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J15" t="n">
-        <v>130.2226992162549</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K15" t="n">
-        <v>392.3832078845233</v>
+        <v>68.10001809715385</v>
       </c>
       <c r="L15" t="n">
-        <v>802.133840764949</v>
+        <v>477.8506509775796</v>
       </c>
       <c r="M15" t="n">
-        <v>1338.430017546049</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N15" t="n">
         <v>1578.032071547365</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>311.8142519962917</v>
+        <v>262.8990795775143</v>
       </c>
       <c r="C16" t="n">
-        <v>231.6905087220344</v>
+        <v>182.7753363032571</v>
       </c>
       <c r="D16" t="n">
-        <v>231.6905087220344</v>
+        <v>119.1956693950823</v>
       </c>
       <c r="E16" t="n">
-        <v>231.6905087220344</v>
+        <v>119.1956693950823</v>
       </c>
       <c r="F16" t="n">
-        <v>168.702080011874</v>
+        <v>119.1956693950823</v>
       </c>
       <c r="G16" t="n">
-        <v>168.702080011874</v>
+        <v>119.1956693950823</v>
       </c>
       <c r="H16" t="n">
-        <v>100.3603280900062</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I16" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J16" t="n">
-        <v>91.69505674979129</v>
+        <v>91.69505674979136</v>
       </c>
       <c r="K16" t="n">
-        <v>232.7169638270792</v>
+        <v>232.7169638270793</v>
       </c>
       <c r="L16" t="n">
-        <v>446.2527666318767</v>
+        <v>446.2527666318769</v>
       </c>
       <c r="M16" t="n">
         <v>678.5458083128451</v>
@@ -5455,31 +5455,31 @@
         <v>1291.979214699444</v>
       </c>
       <c r="Q16" t="n">
-        <v>1356.12319156128</v>
+        <v>1356.123191561281</v>
       </c>
       <c r="R16" t="n">
-        <v>1303.875075247595</v>
+        <v>1356.123191561281</v>
       </c>
       <c r="S16" t="n">
-        <v>1182.673515097046</v>
+        <v>1234.921631410732</v>
       </c>
       <c r="T16" t="n">
-        <v>1039.726229389829</v>
+        <v>1091.974345703514</v>
       </c>
       <c r="U16" t="n">
-        <v>842.0376558180508</v>
+        <v>894.2857721317368</v>
       </c>
       <c r="V16" t="n">
-        <v>670.7945776405356</v>
+        <v>723.0426939542218</v>
       </c>
       <c r="W16" t="n">
-        <v>670.7945776405356</v>
+        <v>631.2653923820537</v>
       </c>
       <c r="X16" t="n">
-        <v>529.0343397999738</v>
+        <v>489.505154541492</v>
       </c>
       <c r="Y16" t="n">
-        <v>396.4914072563134</v>
+        <v>356.9622219978316</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1355.62286871188</v>
+        <v>1355.622868711878</v>
       </c>
       <c r="C17" t="n">
-        <v>1140.941437787721</v>
+        <v>1140.941437787719</v>
       </c>
       <c r="D17" t="n">
-        <v>935.3698007579778</v>
+        <v>935.3698007579754</v>
       </c>
       <c r="E17" t="n">
-        <v>707.8364086071165</v>
+        <v>707.836408607116</v>
       </c>
       <c r="F17" t="n">
-        <v>460.9375456603205</v>
+        <v>460.9375456603201</v>
       </c>
       <c r="G17" t="n">
         <v>212.4716960224776</v>
       </c>
       <c r="H17" t="n">
-        <v>50.85391747321464</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I17" t="n">
-        <v>50.85391747321464</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J17" t="n">
-        <v>154.9459054532638</v>
+        <v>154.9459054532636</v>
       </c>
       <c r="K17" t="n">
-        <v>443.1860302481638</v>
+        <v>443.1860302481634</v>
       </c>
       <c r="L17" t="n">
-        <v>850.7433998907125</v>
+        <v>850.7433998907119</v>
       </c>
       <c r="M17" t="n">
-        <v>1310.379159876957</v>
+        <v>1310.379159876956</v>
       </c>
       <c r="N17" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O17" t="n">
-        <v>2124.89697738289</v>
+        <v>2124.896977382889</v>
       </c>
       <c r="P17" t="n">
-        <v>2407.429665198536</v>
+        <v>2407.429665198535</v>
       </c>
       <c r="Q17" t="n">
-        <v>2542.695873660732</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R17" t="n">
-        <v>2542.695873660732</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="S17" t="n">
-        <v>2531.510852380084</v>
+        <v>2531.510852380083</v>
       </c>
       <c r="T17" t="n">
-        <v>2476.093113473633</v>
+        <v>2476.093113473632</v>
       </c>
       <c r="U17" t="n">
-        <v>2388.490969663856</v>
+        <v>2388.490969663855</v>
       </c>
       <c r="V17" t="n">
-        <v>2218.764023302831</v>
+        <v>2218.76402330283</v>
       </c>
       <c r="W17" t="n">
-        <v>2023.481420903466</v>
+        <v>2023.481420903464</v>
       </c>
       <c r="X17" t="n">
-        <v>1808.703608167993</v>
+        <v>1808.703608167991</v>
       </c>
       <c r="Y17" t="n">
-        <v>1582.414080486865</v>
+        <v>1582.414080486863</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>112.1289883137699</v>
       </c>
       <c r="I18" t="n">
-        <v>50.85391747321464</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J18" t="n">
-        <v>50.85391747321464</v>
+        <v>130.2226992162549</v>
       </c>
       <c r="K18" t="n">
-        <v>251.6973914949267</v>
+        <v>392.3832078845233</v>
       </c>
       <c r="L18" t="n">
-        <v>661.4480243753526</v>
+        <v>802.1338407649491</v>
       </c>
       <c r="M18" t="n">
-        <v>1197.744201156453</v>
+        <v>1338.430017546049</v>
       </c>
       <c r="N18" t="n">
-        <v>1761.629444945138</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O18" t="n">
-        <v>2201.966047520445</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P18" t="n">
-        <v>2542.695873660732</v>
+        <v>2359.098500262959</v>
       </c>
       <c r="Q18" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R18" t="n">
         <v>2495.728130619192</v>
@@ -5647,61 +5647,61 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.71191944818174</v>
+        <v>54.71191944818171</v>
       </c>
       <c r="C19" t="n">
-        <v>52.34827765289577</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="D19" t="n">
-        <v>52.34827765289577</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="E19" t="n">
-        <v>52.34827765289577</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="F19" t="n">
-        <v>52.34827765289577</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="G19" t="n">
-        <v>50.85391747321464</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H19" t="n">
-        <v>50.85391747321464</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I19" t="n">
-        <v>50.85391747321464</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J19" t="n">
-        <v>50.85391747321464</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K19" t="n">
-        <v>104.164493589095</v>
+        <v>104.1644935890949</v>
       </c>
       <c r="L19" t="n">
-        <v>229.988965432485</v>
+        <v>229.9889654324849</v>
       </c>
       <c r="M19" t="n">
-        <v>374.5706761520459</v>
+        <v>374.5706761520456</v>
       </c>
       <c r="N19" t="n">
-        <v>518.949014415968</v>
+        <v>518.9490144159677</v>
       </c>
       <c r="O19" t="n">
-        <v>641.3872247924082</v>
+        <v>641.3872247924078</v>
       </c>
       <c r="P19" t="n">
-        <v>724.870089654422</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="Q19" t="n">
-        <v>724.870089654422</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R19" t="n">
-        <v>724.870089654422</v>
+        <v>630.7420932465484</v>
       </c>
       <c r="S19" t="n">
-        <v>681.4286309828448</v>
+        <v>587.300634574971</v>
       </c>
       <c r="T19" t="n">
-        <v>616.2414467545983</v>
+        <v>522.1134503467246</v>
       </c>
       <c r="U19" t="n">
         <v>402.1849782539183</v>
@@ -5716,7 +5716,7 @@
         <v>125.797791454217</v>
       </c>
       <c r="Y19" t="n">
-        <v>71.01496038952783</v>
+        <v>71.0149603895278</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1140.941437787719</v>
       </c>
       <c r="D20" t="n">
-        <v>935.369800757976</v>
+        <v>935.3698007579762</v>
       </c>
       <c r="E20" t="n">
-        <v>707.8364086071166</v>
+        <v>707.8364086071168</v>
       </c>
       <c r="F20" t="n">
-        <v>460.9375456603207</v>
+        <v>460.9375456603209</v>
       </c>
       <c r="G20" t="n">
         <v>212.4716960224776</v>
@@ -5750,19 +5750,19 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J20" t="n">
-        <v>154.9459054532636</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K20" t="n">
         <v>443.1860302481634</v>
       </c>
       <c r="L20" t="n">
-        <v>850.743399890712</v>
+        <v>850.7433998907119</v>
       </c>
       <c r="M20" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N20" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O20" t="n">
         <v>2124.896977382889</v>
@@ -5777,16 +5777,16 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S20" t="n">
-        <v>2531.510852380082</v>
+        <v>2531.510852380083</v>
       </c>
       <c r="T20" t="n">
         <v>2476.093113473632</v>
       </c>
       <c r="U20" t="n">
-        <v>2388.490969663855</v>
+        <v>2388.490969663854</v>
       </c>
       <c r="V20" t="n">
-        <v>2218.76402330283</v>
+        <v>2218.764023302829</v>
       </c>
       <c r="W20" t="n">
         <v>2023.481420903464</v>
@@ -5829,28 +5829,28 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J21" t="n">
-        <v>130.2226992162549</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K21" t="n">
-        <v>392.3832078845233</v>
+        <v>313.014426141483</v>
       </c>
       <c r="L21" t="n">
-        <v>802.1338407649491</v>
+        <v>722.7650590219088</v>
       </c>
       <c r="M21" t="n">
-        <v>1338.430017546049</v>
+        <v>1259.061235803009</v>
       </c>
       <c r="N21" t="n">
-        <v>1902.315261334734</v>
+        <v>1822.946479591694</v>
       </c>
       <c r="O21" t="n">
-        <v>2342.651863910041</v>
+        <v>2263.283082167001</v>
       </c>
       <c r="P21" t="n">
-        <v>2359.098500262959</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Q21" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R21" t="n">
         <v>2495.728130619192</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54.71191944818171</v>
+        <v>148.8399158560548</v>
       </c>
       <c r="C22" t="n">
-        <v>52.34827765289574</v>
+        <v>146.4762740607688</v>
       </c>
       <c r="D22" t="n">
-        <v>52.34827765289574</v>
+        <v>146.4762740607688</v>
       </c>
       <c r="E22" t="n">
         <v>52.34827765289574</v>
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1355.622868711878</v>
+        <v>1355.622868711877</v>
       </c>
       <c r="C23" t="n">
-        <v>1140.941437787719</v>
+        <v>1140.941437787718</v>
       </c>
       <c r="D23" t="n">
-        <v>935.369800757976</v>
+        <v>935.3698007579756</v>
       </c>
       <c r="E23" t="n">
-        <v>707.8364086071166</v>
+        <v>707.836408607116</v>
       </c>
       <c r="F23" t="n">
         <v>460.9375456603207</v>
@@ -5987,13 +5987,13 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J23" t="n">
-        <v>154.9459054532636</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K23" t="n">
         <v>443.1860302481634</v>
       </c>
       <c r="L23" t="n">
-        <v>850.7433998907115</v>
+        <v>850.7433998907119</v>
       </c>
       <c r="M23" t="n">
         <v>1310.379159876956</v>
@@ -6020,16 +6020,16 @@
         <v>2476.093113473632</v>
       </c>
       <c r="U23" t="n">
-        <v>2388.490969663855</v>
+        <v>2388.490969663854</v>
       </c>
       <c r="V23" t="n">
-        <v>2218.76402330283</v>
+        <v>2218.764023302829</v>
       </c>
       <c r="W23" t="n">
-        <v>2023.481420903465</v>
+        <v>2023.481420903464</v>
       </c>
       <c r="X23" t="n">
-        <v>1808.703608167992</v>
+        <v>1808.703608167991</v>
       </c>
       <c r="Y23" t="n">
         <v>1582.414080486863</v>
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>920.8593958421042</v>
+        <v>920.8593958421039</v>
       </c>
       <c r="C24" t="n">
-        <v>759.155723083059</v>
+        <v>759.1557230830587</v>
       </c>
       <c r="D24" t="n">
-        <v>620.3170860732712</v>
+        <v>620.3170860732707</v>
       </c>
       <c r="E24" t="n">
-        <v>473.2890761301423</v>
+        <v>473.2890761301419</v>
       </c>
       <c r="F24" t="n">
-        <v>338.5952780800167</v>
+        <v>338.5952780800163</v>
       </c>
       <c r="G24" t="n">
         <v>210.0732042050868</v>
@@ -6072,10 +6072,10 @@
         <v>392.3832078845233</v>
       </c>
       <c r="L24" t="n">
-        <v>802.1338407649491</v>
+        <v>477.8506509775796</v>
       </c>
       <c r="M24" t="n">
-        <v>1338.430017546049</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N24" t="n">
         <v>1578.032071547365</v>
@@ -6084,28 +6084,28 @@
         <v>2018.368674122672</v>
       </c>
       <c r="P24" t="n">
-        <v>2359.098500262959</v>
+        <v>2359.098500262958</v>
       </c>
       <c r="Q24" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R24" t="n">
         <v>2495.728130619192</v>
       </c>
       <c r="S24" t="n">
-        <v>2346.762917934842</v>
+        <v>2346.762917934841</v>
       </c>
       <c r="T24" t="n">
-        <v>2158.909856151447</v>
+        <v>2158.909856151446</v>
       </c>
       <c r="U24" t="n">
-        <v>1940.428644414348</v>
+        <v>1940.428644414347</v>
       </c>
       <c r="V24" t="n">
-        <v>1712.033021862682</v>
+        <v>1712.033021862681</v>
       </c>
       <c r="W24" t="n">
-        <v>1470.717153095992</v>
+        <v>1470.717153095991</v>
       </c>
       <c r="X24" t="n">
         <v>1272.800164973786</v>
@@ -6130,19 +6130,19 @@
         <v>146.4762740607688</v>
       </c>
       <c r="E25" t="n">
-        <v>52.34827765289574</v>
+        <v>146.4762740607688</v>
       </c>
       <c r="F25" t="n">
-        <v>52.34827765289574</v>
+        <v>146.4762740607688</v>
       </c>
       <c r="G25" t="n">
-        <v>50.85391747321462</v>
+        <v>144.9819138810876</v>
       </c>
       <c r="H25" t="n">
-        <v>50.85391747321462</v>
+        <v>98.6757639019779</v>
       </c>
       <c r="I25" t="n">
-        <v>50.85391747321462</v>
+        <v>98.6757639019779</v>
       </c>
       <c r="J25" t="n">
         <v>50.85391747321462</v>
@@ -6224,13 +6224,13 @@
         <v>68.90649205312728</v>
       </c>
       <c r="J26" t="n">
-        <v>278.5160280611989</v>
+        <v>278.5160280611992</v>
       </c>
       <c r="K26" t="n">
-        <v>672.2737008841218</v>
+        <v>672.273700884122</v>
       </c>
       <c r="L26" t="n">
-        <v>1185.348618554693</v>
+        <v>1185.348618554694</v>
       </c>
       <c r="M26" t="n">
         <v>1750.501926568961</v>
@@ -6309,7 +6309,7 @@
         <v>410.435782464436</v>
       </c>
       <c r="L27" t="n">
-        <v>820.1864153448616</v>
+        <v>820.1864153448618</v>
       </c>
       <c r="M27" t="n">
         <v>1356.482592125962</v>
@@ -6385,16 +6385,16 @@
         <v>127.5538483963194</v>
       </c>
       <c r="K28" t="n">
-        <v>264.6492285426722</v>
+        <v>286.3819725402227</v>
       </c>
       <c r="L28" t="n">
-        <v>495.9912484140851</v>
+        <v>517.7239924116357</v>
       </c>
       <c r="M28" t="n">
-        <v>746.0905071616689</v>
+        <v>767.8232511592195</v>
       </c>
       <c r="N28" t="n">
-        <v>995.9863934536139</v>
+        <v>1017.719137451164</v>
       </c>
       <c r="O28" t="n">
         <v>1223.942151858077</v>
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1781.512829068194</v>
+        <v>1781.512829068193</v>
       </c>
       <c r="C29" t="n">
-        <v>1507.239052064121</v>
+        <v>1507.23905206412</v>
       </c>
       <c r="D29" t="n">
-        <v>1242.075068954463</v>
+        <v>1242.075068954462</v>
       </c>
       <c r="E29" t="n">
-        <v>954.9493307236894</v>
+        <v>954.9493307236885</v>
       </c>
       <c r="F29" t="n">
-        <v>648.4581216969789</v>
+        <v>648.458121696978</v>
       </c>
       <c r="G29" t="n">
-        <v>340.3999259792213</v>
+        <v>340.3999259792204</v>
       </c>
       <c r="H29" t="n">
-        <v>119.1898013500425</v>
+        <v>119.1898013500428</v>
       </c>
       <c r="I29" t="n">
         <v>68.90649205312728</v>
       </c>
       <c r="J29" t="n">
-        <v>278.516028061199</v>
+        <v>278.5160280611992</v>
       </c>
       <c r="K29" t="n">
-        <v>672.2737008841223</v>
+        <v>672.273700884122</v>
       </c>
       <c r="L29" t="n">
         <v>1185.348618554694</v>
@@ -6482,7 +6482,7 @@
         <v>3164.105075974609</v>
       </c>
       <c r="Q29" t="n">
-        <v>3404.888832464828</v>
+        <v>3404.888832464827</v>
       </c>
       <c r="R29" t="n">
         <v>3445.324602656364</v>
@@ -6494,19 +6494,19 @@
         <v>3259.537150309436</v>
       </c>
       <c r="U29" t="n">
-        <v>3112.342660419744</v>
+        <v>3112.342660419743</v>
       </c>
       <c r="V29" t="n">
-        <v>2883.023367978805</v>
+        <v>2883.023367978803</v>
       </c>
       <c r="W29" t="n">
-        <v>2628.148419499525</v>
+        <v>2628.148419499524</v>
       </c>
       <c r="X29" t="n">
-        <v>2353.778260684137</v>
+        <v>2353.778260684136</v>
       </c>
       <c r="Y29" t="n">
-        <v>2067.896386923094</v>
+        <v>2067.896386923093</v>
       </c>
     </row>
     <row r="30">
@@ -6546,7 +6546,7 @@
         <v>410.435782464436</v>
       </c>
       <c r="L30" t="n">
-        <v>820.1864153448616</v>
+        <v>820.1864153448618</v>
       </c>
       <c r="M30" t="n">
         <v>1356.482592125962</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>408.0434553242535</v>
+        <v>408.0434553242537</v>
       </c>
       <c r="C31" t="n">
-        <v>346.0874674490529</v>
+        <v>346.0874674490531</v>
       </c>
       <c r="D31" t="n">
-        <v>300.6755559399347</v>
+        <v>300.6755559399349</v>
       </c>
       <c r="E31" t="n">
-        <v>256.3265233643727</v>
+        <v>256.3265233643728</v>
       </c>
       <c r="F31" t="n">
-        <v>211.5058500532689</v>
+        <v>211.505850053269</v>
       </c>
       <c r="G31" t="n">
         <v>150.4191437936732</v>
       </c>
       <c r="H31" t="n">
-        <v>100.2451472708621</v>
+        <v>100.2451472708622</v>
       </c>
       <c r="I31" t="n">
         <v>68.90649205312728</v>
@@ -6622,31 +6622,31 @@
         <v>127.5538483963194</v>
       </c>
       <c r="K31" t="n">
-        <v>264.6492285426712</v>
+        <v>286.3819725402227</v>
       </c>
       <c r="L31" t="n">
-        <v>495.9912484140842</v>
+        <v>495.9912484140849</v>
       </c>
       <c r="M31" t="n">
-        <v>746.090507161668</v>
+        <v>746.0905071616687</v>
       </c>
       <c r="N31" t="n">
-        <v>995.986393453613</v>
+        <v>995.9863934536137</v>
       </c>
       <c r="O31" t="n">
-        <v>1223.942151858076</v>
+        <v>1223.942151858077</v>
       </c>
       <c r="P31" t="n">
-        <v>1412.942564748113</v>
+        <v>1412.942564748114</v>
       </c>
       <c r="Q31" t="n">
-        <v>1494.892758676565</v>
+        <v>1494.892758676566</v>
       </c>
       <c r="R31" t="n">
-        <v>1460.812397761937</v>
+        <v>1460.812397761938</v>
       </c>
       <c r="S31" t="n">
-        <v>1357.778593010445</v>
+        <v>1357.778593010446</v>
       </c>
       <c r="T31" t="n">
         <v>1232.999062702284</v>
@@ -6655,16 +6655,16 @@
         <v>1053.478244529563</v>
       </c>
       <c r="V31" t="n">
-        <v>900.4029217511049</v>
+        <v>900.4029217511052</v>
       </c>
       <c r="W31" t="n">
-        <v>721.9065019316231</v>
+        <v>721.9065019316233</v>
       </c>
       <c r="X31" t="n">
-        <v>598.314019490118</v>
+        <v>598.3140194901182</v>
       </c>
       <c r="Y31" t="n">
-        <v>483.9388423455142</v>
+        <v>483.9388423455144</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1355.622868711876</v>
+        <v>1355.622868711877</v>
       </c>
       <c r="C32" t="n">
-        <v>1140.941437787717</v>
+        <v>1140.941437787718</v>
       </c>
       <c r="D32" t="n">
-        <v>935.3698007579749</v>
+        <v>935.369800757976</v>
       </c>
       <c r="E32" t="n">
-        <v>707.8364086071156</v>
+        <v>707.8364086071167</v>
       </c>
       <c r="F32" t="n">
-        <v>460.9375456603198</v>
+        <v>460.9375456603209</v>
       </c>
       <c r="G32" t="n">
         <v>212.4716960224775</v>
       </c>
       <c r="H32" t="n">
-        <v>50.85391747321458</v>
+        <v>50.85391747321459</v>
       </c>
       <c r="I32" t="n">
-        <v>50.85391747321319</v>
+        <v>50.85391747321459</v>
       </c>
       <c r="J32" t="n">
-        <v>154.9459054532621</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K32" t="n">
-        <v>443.186030248162</v>
+        <v>443.1860302481633</v>
       </c>
       <c r="L32" t="n">
-        <v>850.7433998907104</v>
+        <v>850.7433998907118</v>
       </c>
       <c r="M32" t="n">
-        <v>1310.379159876955</v>
+        <v>1310.379159876956</v>
       </c>
       <c r="N32" t="n">
-        <v>1756.181478599931</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O32" t="n">
-        <v>2124.896977382888</v>
+        <v>2124.896977382889</v>
       </c>
       <c r="P32" t="n">
-        <v>2407.429665198533</v>
+        <v>2407.429665198535</v>
       </c>
       <c r="Q32" t="n">
-        <v>2542.695873660729</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R32" t="n">
         <v>2542.695873660729</v>
       </c>
       <c r="S32" t="n">
-        <v>2531.51085238008</v>
+        <v>2531.510852380081</v>
       </c>
       <c r="T32" t="n">
-        <v>2476.09311347363</v>
+        <v>2476.093113473631</v>
       </c>
       <c r="U32" t="n">
-        <v>2388.490969663852</v>
+        <v>2388.490969663853</v>
       </c>
       <c r="V32" t="n">
-        <v>2218.764023302828</v>
+        <v>2218.764023302829</v>
       </c>
       <c r="W32" t="n">
-        <v>2023.481420903463</v>
+        <v>2023.481420903464</v>
       </c>
       <c r="X32" t="n">
-        <v>1808.70360816799</v>
+        <v>1808.703608167991</v>
       </c>
       <c r="Y32" t="n">
-        <v>1582.414080486861</v>
+        <v>1582.414080486863</v>
       </c>
     </row>
     <row r="33">
@@ -6765,16 +6765,16 @@
         <v>473.2890761301419</v>
       </c>
       <c r="F33" t="n">
-        <v>338.5952780800162</v>
+        <v>338.5952780800163</v>
       </c>
       <c r="G33" t="n">
-        <v>210.0732042050867</v>
+        <v>210.0732042050868</v>
       </c>
       <c r="H33" t="n">
         <v>112.1289883137699</v>
       </c>
       <c r="I33" t="n">
-        <v>50.85391747321458</v>
+        <v>50.85391747321459</v>
       </c>
       <c r="J33" t="n">
         <v>130.2226992162549</v>
@@ -6783,7 +6783,7 @@
         <v>392.3832078845232</v>
       </c>
       <c r="L33" t="n">
-        <v>802.1338407649489</v>
+        <v>802.133840764949</v>
       </c>
       <c r="M33" t="n">
         <v>1338.430017546049</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.8399158560554</v>
+        <v>148.8399158560555</v>
       </c>
       <c r="C34" t="n">
-        <v>146.4762740607695</v>
+        <v>146.4762740607696</v>
       </c>
       <c r="D34" t="n">
-        <v>146.4762740607695</v>
+        <v>146.4762740607696</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4762740607695</v>
+        <v>146.4762740607696</v>
       </c>
       <c r="F34" t="n">
-        <v>146.4762740607695</v>
+        <v>146.4762740607696</v>
       </c>
       <c r="G34" t="n">
-        <v>144.9819138810884</v>
+        <v>144.9819138810886</v>
       </c>
       <c r="H34" t="n">
-        <v>144.9819138810884</v>
+        <v>50.85391747321459</v>
       </c>
       <c r="I34" t="n">
-        <v>50.85391747321458</v>
+        <v>50.85391747321459</v>
       </c>
       <c r="J34" t="n">
-        <v>50.85391747321458</v>
+        <v>50.85391747321459</v>
       </c>
       <c r="K34" t="n">
         <v>104.1644935890948</v>
@@ -6889,19 +6889,19 @@
         <v>616.241446754598</v>
       </c>
       <c r="U34" t="n">
-        <v>496.3129746617917</v>
+        <v>496.3129746617918</v>
       </c>
       <c r="V34" t="n">
-        <v>402.8299979632481</v>
+        <v>402.8299979632482</v>
       </c>
       <c r="W34" t="n">
-        <v>283.925924223681</v>
+        <v>283.9259242236811</v>
       </c>
       <c r="X34" t="n">
-        <v>219.9257878620906</v>
+        <v>219.9257878620907</v>
       </c>
       <c r="Y34" t="n">
-        <v>165.1429567974014</v>
+        <v>165.1429567974016</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1140.941437787719</v>
       </c>
       <c r="D35" t="n">
-        <v>935.369800757976</v>
+        <v>935.3698007579762</v>
       </c>
       <c r="E35" t="n">
-        <v>707.8364086071167</v>
+        <v>707.8364086071168</v>
       </c>
       <c r="F35" t="n">
-        <v>460.9375456603209</v>
+        <v>460.9375456603211</v>
       </c>
       <c r="G35" t="n">
         <v>212.4716960224775</v>
@@ -6932,16 +6932,16 @@
         <v>50.85391747321462</v>
       </c>
       <c r="I35" t="n">
-        <v>50.85391747321501</v>
+        <v>50.85391747321484</v>
       </c>
       <c r="J35" t="n">
-        <v>154.9459054532639</v>
+        <v>154.9459054532638</v>
       </c>
       <c r="K35" t="n">
-        <v>443.1860302481638</v>
+        <v>443.1860302481636</v>
       </c>
       <c r="L35" t="n">
-        <v>850.7433998907122</v>
+        <v>850.7433998907121</v>
       </c>
       <c r="M35" t="n">
         <v>1310.379159876956</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>920.8593958421039</v>
+        <v>920.8593958421045</v>
       </c>
       <c r="C36" t="n">
-        <v>759.1557230830587</v>
+        <v>759.1557230830592</v>
       </c>
       <c r="D36" t="n">
-        <v>620.3170860732707</v>
+        <v>620.3170860732713</v>
       </c>
       <c r="E36" t="n">
-        <v>473.2890761301419</v>
+        <v>473.2890761301425</v>
       </c>
       <c r="F36" t="n">
-        <v>338.5952780800163</v>
+        <v>338.5952780800169</v>
       </c>
       <c r="G36" t="n">
-        <v>210.0732042050868</v>
+        <v>210.0732042050874</v>
       </c>
       <c r="H36" t="n">
-        <v>112.1289883137699</v>
+        <v>112.1289883137705</v>
       </c>
       <c r="I36" t="n">
         <v>50.85391747321462</v>
@@ -7020,7 +7020,7 @@
         <v>313.014426141483</v>
       </c>
       <c r="L36" t="n">
-        <v>722.7650590219087</v>
+        <v>722.7650590219088</v>
       </c>
       <c r="M36" t="n">
         <v>1259.061235803009</v>
@@ -7041,19 +7041,19 @@
         <v>2495.728130619192</v>
       </c>
       <c r="S36" t="n">
-        <v>2346.762917934841</v>
+        <v>2346.762917934842</v>
       </c>
       <c r="T36" t="n">
-        <v>2158.909856151446</v>
+        <v>2158.909856151447</v>
       </c>
       <c r="U36" t="n">
-        <v>1940.428644414347</v>
+        <v>1940.428644414348</v>
       </c>
       <c r="V36" t="n">
-        <v>1712.033021862681</v>
+        <v>1712.033021862682</v>
       </c>
       <c r="W36" t="n">
-        <v>1470.717153095991</v>
+        <v>1470.717153095992</v>
       </c>
       <c r="X36" t="n">
         <v>1272.800164973786</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.7119194481816</v>
+        <v>54.71191944818154</v>
       </c>
       <c r="C37" t="n">
-        <v>52.34827765289568</v>
+        <v>52.34827765289565</v>
       </c>
       <c r="D37" t="n">
-        <v>52.34827765289568</v>
+        <v>52.34827765289565</v>
       </c>
       <c r="E37" t="n">
-        <v>52.34827765289568</v>
+        <v>52.34827765289565</v>
       </c>
       <c r="F37" t="n">
-        <v>52.34827765289568</v>
+        <v>52.34827765289565</v>
       </c>
       <c r="G37" t="n">
         <v>50.85391747321462</v>
@@ -7120,25 +7120,25 @@
         <v>724.8700896544216</v>
       </c>
       <c r="S37" t="n">
-        <v>587.3006345749704</v>
+        <v>681.4286309828443</v>
       </c>
       <c r="T37" t="n">
-        <v>522.1134503467241</v>
+        <v>616.241446754598</v>
       </c>
       <c r="U37" t="n">
-        <v>402.1849782539179</v>
+        <v>496.3129746617918</v>
       </c>
       <c r="V37" t="n">
-        <v>308.7020015553743</v>
+        <v>308.7020015553741</v>
       </c>
       <c r="W37" t="n">
-        <v>189.7979278158072</v>
+        <v>189.797927815807</v>
       </c>
       <c r="X37" t="n">
-        <v>125.7977914542167</v>
+        <v>125.7977914542166</v>
       </c>
       <c r="Y37" t="n">
-        <v>71.01496038952763</v>
+        <v>71.01496038952754</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1355.622868711877</v>
+        <v>1355.622868711878</v>
       </c>
       <c r="C38" t="n">
-        <v>1140.941437787718</v>
+        <v>1140.941437787719</v>
       </c>
       <c r="D38" t="n">
-        <v>935.3698007579756</v>
+        <v>935.3698007579765</v>
       </c>
       <c r="E38" t="n">
-        <v>707.836408607116</v>
+        <v>707.8364086071171</v>
       </c>
       <c r="F38" t="n">
-        <v>460.9375456603207</v>
+        <v>460.9375456603211</v>
       </c>
       <c r="G38" t="n">
         <v>212.4716960224776</v>
@@ -7199,25 +7199,25 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S38" t="n">
-        <v>2531.510852380082</v>
+        <v>2531.510852380083</v>
       </c>
       <c r="T38" t="n">
         <v>2476.093113473632</v>
       </c>
       <c r="U38" t="n">
-        <v>2388.490969663854</v>
+        <v>2388.490969663855</v>
       </c>
       <c r="V38" t="n">
-        <v>2218.764023302829</v>
+        <v>2218.76402330283</v>
       </c>
       <c r="W38" t="n">
-        <v>2023.481420903464</v>
+        <v>2023.481420903465</v>
       </c>
       <c r="X38" t="n">
-        <v>1808.703608167991</v>
+        <v>1808.703608167992</v>
       </c>
       <c r="Y38" t="n">
-        <v>1582.414080486863</v>
+        <v>1582.414080486864</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>920.8593958421037</v>
+        <v>920.8593958421039</v>
       </c>
       <c r="C39" t="n">
-        <v>759.1557230830585</v>
+        <v>759.1557230830587</v>
       </c>
       <c r="D39" t="n">
         <v>620.3170860732707</v>
@@ -7239,7 +7239,7 @@
         <v>473.2890761301419</v>
       </c>
       <c r="F39" t="n">
-        <v>338.5952780800162</v>
+        <v>338.5952780800163</v>
       </c>
       <c r="G39" t="n">
         <v>210.0732042050868</v>
@@ -7251,28 +7251,28 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J39" t="n">
-        <v>130.2226992162549</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K39" t="n">
-        <v>392.3832078845233</v>
+        <v>313.014426141483</v>
       </c>
       <c r="L39" t="n">
-        <v>802.133840764949</v>
+        <v>722.7650590219088</v>
       </c>
       <c r="M39" t="n">
-        <v>1338.430017546049</v>
+        <v>1259.061235803009</v>
       </c>
       <c r="N39" t="n">
-        <v>1578.032071547365</v>
+        <v>1761.629444945137</v>
       </c>
       <c r="O39" t="n">
-        <v>2018.368674122672</v>
+        <v>2201.966047520444</v>
       </c>
       <c r="P39" t="n">
-        <v>2359.098500262959</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="Q39" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R39" t="n">
         <v>2495.728130619192</v>
@@ -7351,16 +7351,16 @@
         <v>724.8700896544216</v>
       </c>
       <c r="Q40" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R40" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S40" t="n">
-        <v>657.3827641329608</v>
+        <v>681.4286309828442</v>
       </c>
       <c r="T40" t="n">
-        <v>592.1955799047144</v>
+        <v>616.2414467545977</v>
       </c>
       <c r="U40" t="n">
         <v>402.1849782539183</v>
@@ -7394,34 +7394,34 @@
         <v>935.369800757976</v>
       </c>
       <c r="E41" t="n">
-        <v>707.8364086071167</v>
+        <v>707.8364086071166</v>
       </c>
       <c r="F41" t="n">
-        <v>460.9375456603209</v>
+        <v>460.9375456603207</v>
       </c>
       <c r="G41" t="n">
-        <v>212.4716960224775</v>
+        <v>212.4716960224776</v>
       </c>
       <c r="H41" t="n">
-        <v>50.85391747321459</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I41" t="n">
-        <v>50.85391747321459</v>
+        <v>50.85391747321484</v>
       </c>
       <c r="J41" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532638</v>
       </c>
       <c r="K41" t="n">
-        <v>443.1860302481633</v>
+        <v>443.1860302481636</v>
       </c>
       <c r="L41" t="n">
-        <v>850.7433998907118</v>
+        <v>850.7433998907121</v>
       </c>
       <c r="M41" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N41" t="n">
-        <v>1756.181478599932</v>
+        <v>1756.181478599933</v>
       </c>
       <c r="O41" t="n">
         <v>2124.896977382889</v>
@@ -7430,16 +7430,16 @@
         <v>2407.429665198535</v>
       </c>
       <c r="Q41" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R41" t="n">
-        <v>2542.695873660729</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="S41" t="n">
         <v>2531.510852380082</v>
       </c>
       <c r="T41" t="n">
-        <v>2476.093113473631</v>
+        <v>2476.093113473632</v>
       </c>
       <c r="U41" t="n">
         <v>2388.490969663854</v>
@@ -7485,31 +7485,31 @@
         <v>112.1289883137699</v>
       </c>
       <c r="I42" t="n">
-        <v>50.85391747321459</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J42" t="n">
         <v>130.2226992162549</v>
       </c>
       <c r="K42" t="n">
-        <v>392.3832078845232</v>
+        <v>392.3832078845233</v>
       </c>
       <c r="L42" t="n">
-        <v>802.1338407649489</v>
+        <v>802.1338407649491</v>
       </c>
       <c r="M42" t="n">
         <v>1338.430017546049</v>
       </c>
       <c r="N42" t="n">
-        <v>1902.315261334734</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O42" t="n">
-        <v>2342.651863910041</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P42" t="n">
-        <v>2542.69587366073</v>
+        <v>2359.098500262959</v>
       </c>
       <c r="Q42" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R42" t="n">
         <v>2495.728130619192</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.71191944818151</v>
+        <v>148.8399158560548</v>
       </c>
       <c r="C43" t="n">
-        <v>52.34827765289563</v>
+        <v>146.4762740607688</v>
       </c>
       <c r="D43" t="n">
-        <v>52.34827765289563</v>
+        <v>146.4762740607688</v>
       </c>
       <c r="E43" t="n">
-        <v>52.34827765289563</v>
+        <v>146.4762740607688</v>
       </c>
       <c r="F43" t="n">
-        <v>52.34827765289563</v>
+        <v>146.4762740607688</v>
       </c>
       <c r="G43" t="n">
-        <v>50.85391747321459</v>
+        <v>144.9819138810876</v>
       </c>
       <c r="H43" t="n">
-        <v>50.85391747321459</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I43" t="n">
-        <v>50.85391747321459</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J43" t="n">
-        <v>50.85391747321459</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K43" t="n">
-        <v>104.1644935890948</v>
+        <v>104.1644935890949</v>
       </c>
       <c r="L43" t="n">
-        <v>229.9889654324848</v>
+        <v>229.9889654324849</v>
       </c>
       <c r="M43" t="n">
         <v>374.5706761520456</v>
@@ -7594,25 +7594,25 @@
         <v>724.8700896544216</v>
       </c>
       <c r="S43" t="n">
-        <v>587.3006345749703</v>
+        <v>681.4286309828442</v>
       </c>
       <c r="T43" t="n">
-        <v>522.113450346724</v>
+        <v>616.2414467545977</v>
       </c>
       <c r="U43" t="n">
-        <v>402.1849782539177</v>
+        <v>496.3129746617914</v>
       </c>
       <c r="V43" t="n">
-        <v>308.7020015553741</v>
+        <v>402.8299979632478</v>
       </c>
       <c r="W43" t="n">
-        <v>189.797927815807</v>
+        <v>283.9259242236806</v>
       </c>
       <c r="X43" t="n">
-        <v>125.7977914542166</v>
+        <v>219.9257878620901</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.01496038952752</v>
+        <v>165.1429567974009</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1355.622868711878</v>
+        <v>1355.622868711877</v>
       </c>
       <c r="C44" t="n">
-        <v>1140.941437787719</v>
+        <v>1140.941437787718</v>
       </c>
       <c r="D44" t="n">
-        <v>935.369800757976</v>
+        <v>935.3698007579756</v>
       </c>
       <c r="E44" t="n">
-        <v>707.8364086071167</v>
+        <v>707.836408607116</v>
       </c>
       <c r="F44" t="n">
-        <v>460.9375456603208</v>
+        <v>460.9375456603207</v>
       </c>
       <c r="G44" t="n">
-        <v>212.4716960224775</v>
+        <v>212.4716960224776</v>
       </c>
       <c r="H44" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="I44" t="n">
-        <v>50.85391747321501</v>
+        <v>50.85391747321484</v>
       </c>
       <c r="J44" t="n">
-        <v>154.9459054532639</v>
+        <v>154.9459054532638</v>
       </c>
       <c r="K44" t="n">
-        <v>443.1860302481638</v>
+        <v>443.1860302481636</v>
       </c>
       <c r="L44" t="n">
-        <v>850.7433998907122</v>
+        <v>850.7433998907121</v>
       </c>
       <c r="M44" t="n">
         <v>1310.379159876956</v>
@@ -7673,7 +7673,7 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S44" t="n">
-        <v>2531.510852380083</v>
+        <v>2531.510852380082</v>
       </c>
       <c r="T44" t="n">
         <v>2476.093113473632</v>
@@ -7701,10 +7701,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>920.8593958421037</v>
+        <v>920.8593958421039</v>
       </c>
       <c r="C45" t="n">
-        <v>759.1557230830585</v>
+        <v>759.1557230830587</v>
       </c>
       <c r="D45" t="n">
         <v>620.3170860732707</v>
@@ -7713,10 +7713,10 @@
         <v>473.2890761301419</v>
       </c>
       <c r="F45" t="n">
-        <v>338.5952780800162</v>
+        <v>338.5952780800163</v>
       </c>
       <c r="G45" t="n">
-        <v>210.0732042050869</v>
+        <v>210.0732042050868</v>
       </c>
       <c r="H45" t="n">
         <v>112.1289883137699</v>
@@ -7725,16 +7725,16 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J45" t="n">
-        <v>50.85391747321462</v>
+        <v>130.2226992162549</v>
       </c>
       <c r="K45" t="n">
-        <v>68.1000180971543</v>
+        <v>392.3832078845233</v>
       </c>
       <c r="L45" t="n">
-        <v>477.85065097758</v>
+        <v>802.1338407649491</v>
       </c>
       <c r="M45" t="n">
-        <v>1014.14682775868</v>
+        <v>1338.430017546049</v>
       </c>
       <c r="N45" t="n">
         <v>1578.032071547365</v>
@@ -7743,10 +7743,10 @@
         <v>2018.368674122672</v>
       </c>
       <c r="P45" t="n">
-        <v>2359.098500262959</v>
+        <v>2359.098500262958</v>
       </c>
       <c r="Q45" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R45" t="n">
         <v>2495.728130619192</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.71191944818154</v>
+        <v>54.71191944818171</v>
       </c>
       <c r="C46" t="n">
-        <v>52.34827765289565</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="D46" t="n">
-        <v>52.34827765289565</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="E46" t="n">
-        <v>52.34827765289565</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="F46" t="n">
-        <v>52.34827765289565</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="G46" t="n">
         <v>50.85391747321462</v>
@@ -7825,31 +7825,31 @@
         <v>724.8700896544216</v>
       </c>
       <c r="Q46" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R46" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S46" t="n">
-        <v>657.3827641329608</v>
+        <v>681.4286309828442</v>
       </c>
       <c r="T46" t="n">
-        <v>592.1955799047145</v>
+        <v>522.1134503467246</v>
       </c>
       <c r="U46" t="n">
-        <v>402.1849782539177</v>
+        <v>402.1849782539183</v>
       </c>
       <c r="V46" t="n">
-        <v>308.7020015553741</v>
+        <v>308.7020015553746</v>
       </c>
       <c r="W46" t="n">
-        <v>189.797927815807</v>
+        <v>189.7979278158075</v>
       </c>
       <c r="X46" t="n">
-        <v>125.7977914542166</v>
+        <v>125.797791454217</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.01496038952754</v>
+        <v>71.0149603895278</v>
       </c>
     </row>
   </sheetData>
@@ -7982,22 +7982,22 @@
         <v>178.8230039740467</v>
       </c>
       <c r="L2" t="n">
-        <v>191.5602121631146</v>
+        <v>285.7793148235261</v>
       </c>
       <c r="M2" t="n">
         <v>187.1563144971591</v>
       </c>
       <c r="N2" t="n">
-        <v>276.8103844019186</v>
+        <v>280.6172168326416</v>
       </c>
       <c r="O2" t="n">
-        <v>281.1738994405326</v>
+        <v>281.173899440532</v>
       </c>
       <c r="P2" t="n">
-        <v>282.0959117115686</v>
+        <v>278.2890792808444</v>
       </c>
       <c r="Q2" t="n">
-        <v>274.8424756834024</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8058,10 +8058,10 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>206.2152718270788</v>
+        <v>206.2152718270782</v>
       </c>
       <c r="L3" t="n">
-        <v>206.7945362315599</v>
+        <v>206.7945362315593</v>
       </c>
       <c r="M3" t="n">
         <v>115.4839025616399</v>
@@ -8070,13 +8070,13 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O3" t="n">
-        <v>145.4089445649347</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P3" t="n">
-        <v>108.8542060241433</v>
+        <v>138.4037019779664</v>
       </c>
       <c r="Q3" t="n">
-        <v>207.9542941053047</v>
+        <v>207.954294105304</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8137,22 +8137,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K4" t="n">
-        <v>138.7668962480483</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L4" t="n">
-        <v>166.0624457237062</v>
+        <v>136.4015406898729</v>
       </c>
       <c r="M4" t="n">
-        <v>207.0963021178412</v>
+        <v>207.0963021178406</v>
       </c>
       <c r="N4" t="n">
-        <v>197.9636075384141</v>
+        <v>197.9636075384135</v>
       </c>
       <c r="O4" t="n">
-        <v>206.7150401525344</v>
+        <v>206.7150401525338</v>
       </c>
       <c r="P4" t="n">
-        <v>111.9040032899324</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q4" t="n">
         <v>84.9458458910769</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>219.8255997236959</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K5" t="n">
         <v>178.8230039740467</v>
       </c>
       <c r="L5" t="n">
-        <v>285.7793148235268</v>
+        <v>281.9724823928025</v>
       </c>
       <c r="M5" t="n">
-        <v>281.3754171575712</v>
+        <v>281.3754171575706</v>
       </c>
       <c r="N5" t="n">
-        <v>280.6172168326423</v>
+        <v>280.6172168326416</v>
       </c>
       <c r="O5" t="n">
-        <v>186.9547967801205</v>
+        <v>281.173899440532</v>
       </c>
       <c r="P5" t="n">
-        <v>205.5632769850816</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q5" t="n">
         <v>180.6233730229902</v>
@@ -8295,22 +8295,22 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
-        <v>206.2152718270788</v>
+        <v>206.2152718270782</v>
       </c>
       <c r="L6" t="n">
-        <v>112.5754335711478</v>
+        <v>206.7945362315593</v>
       </c>
       <c r="M6" t="n">
-        <v>145.0333985154635</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N6" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O6" t="n">
-        <v>210.0785512715233</v>
+        <v>210.0785512715226</v>
       </c>
       <c r="P6" t="n">
-        <v>203.0733086845555</v>
+        <v>138.4037019779664</v>
       </c>
       <c r="Q6" t="n">
         <v>113.7351914448925</v>
@@ -8377,16 +8377,16 @@
         <v>104.82327226356</v>
       </c>
       <c r="L7" t="n">
-        <v>200.0060697081945</v>
+        <v>203.8129021389176</v>
       </c>
       <c r="M7" t="n">
-        <v>207.0963021178412</v>
+        <v>207.0963021178406</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9636075384141</v>
+        <v>197.9636075384135</v>
       </c>
       <c r="O7" t="n">
-        <v>206.7150401525344</v>
+        <v>202.9082077218101</v>
       </c>
       <c r="P7" t="n">
         <v>111.9040032899324</v>
@@ -8456,22 +8456,22 @@
         <v>178.8230039740467</v>
       </c>
       <c r="L8" t="n">
-        <v>511.4364970724356</v>
+        <v>504.3317072831996</v>
       </c>
       <c r="M8" t="n">
-        <v>505.8991511145822</v>
+        <v>507.0325994064793</v>
       </c>
       <c r="N8" t="n">
-        <v>506.2743990815511</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O8" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P8" t="n">
-        <v>187.8768090511565</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q8" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8532,25 +8532,25 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>259.582877124505</v>
       </c>
       <c r="L9" t="n">
-        <v>419.5274241406981</v>
+        <v>432.451718480468</v>
       </c>
       <c r="M9" t="n">
-        <v>435.3601874709609</v>
+        <v>435.3601874709601</v>
       </c>
       <c r="N9" t="n">
-        <v>426.5914259770293</v>
+        <v>426.5914259770286</v>
       </c>
       <c r="O9" t="n">
-        <v>435.7357335204321</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P9" t="n">
         <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>83.74785933340016</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -8778,7 +8778,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>375.7567956927573</v>
+        <v>295.5863090836206</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -9003,10 +9003,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>83.74785933339987</v>
       </c>
       <c r="K15" t="n">
-        <v>343.8048081163522</v>
+        <v>96.41651716248435</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9015,7 +9015,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>295.5863090836201</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9240,10 +9240,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>83.74785933339982</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>281.8684094834669</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>295.5863090836206</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.64858173562</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9477,7 +9477,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>83.74785933339987</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9495,10 +9495,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>86.44282166891928</v>
+        <v>352.065200599033</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>87.64858173562192</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9720,13 +9720,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>482.0924488944969</v>
+        <v>154.5336713314974</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>295.5863090836206</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -10674,7 +10674,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>561.2086880137344</v>
+        <v>561.2086880137342</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10899,7 +10899,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>83.74785933339987</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>295.5863090836206</v>
+        <v>561.2086880137338</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -10920,7 +10920,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566038</v>
+        <v>87.64858173562192</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11148,16 +11148,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466196</v>
+        <v>295.5863090836206</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>271.8947139899008</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.64858173562192</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11373,10 +11373,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>83.74785933339987</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>96.41651716248482</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -11385,7 +11385,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>623.1450866466196</v>
+        <v>295.5863090836201</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>265.3827755276566</v>
       </c>
       <c r="C11" t="n">
         <v>289.5171170790989</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>67.76655404901243</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>131.8460619815677</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>141.0673732367256</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>245.0121773615963</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>270.3122768395532</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>289.6125350722997</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>301.0091328684985</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>62.94387023909309</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>61.89162009487254</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>78.46191704206589</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>49.01134651062358</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.7256351505483</v>
+        <v>51.72563515054814</v>
       </c>
       <c r="S13" t="n">
-        <v>119.9895445490432</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>137.019439074164</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>169.5306473957397</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.27448105545606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>195.4866520549956</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>321.4123747815095</v>
       </c>
       <c r="G14" t="n">
-        <v>322.9636916056461</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>236.984101227952</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>88.05567153202341</v>
+        <v>88.05567153202333</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>131.8460619815677</v>
       </c>
       <c r="U14" t="n">
-        <v>163.7086228358612</v>
+        <v>163.7086228358611</v>
       </c>
       <c r="V14" t="n">
-        <v>245.0121773615963</v>
+        <v>245.0121773615962</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>88.79729598447589</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.292127288692699</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>62.9438702390931</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>61.89162009487255</v>
+        <v>61.89162009487248</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>62.35854442305879</v>
       </c>
       <c r="G16" t="n">
-        <v>78.46191704206591</v>
+        <v>78.46191704206583</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>49.01134651062358</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.72563515054814</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>194.6975334663531</v>
+        <v>103.8380049099066</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23735,10 +23735,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-2.578261484267924e-13</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.904254531837068e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.201705815556124e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1069381.898344251</v>
+        <v>1069381.89834425</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1069381.898344251</v>
+        <v>1069381.89834425</v>
       </c>
     </row>
     <row r="9">
@@ -26314,43 +26314,43 @@
         <v>364621.4287347363</v>
       </c>
       <c r="C2" t="n">
-        <v>364621.4287347364</v>
+        <v>364621.4287347363</v>
       </c>
       <c r="D2" t="n">
-        <v>364621.4287347364</v>
+        <v>364621.4287347363</v>
       </c>
       <c r="E2" t="n">
+        <v>316666.1859537381</v>
+      </c>
+      <c r="F2" t="n">
         <v>316666.1859537383</v>
-      </c>
-      <c r="F2" t="n">
-        <v>316666.1859537385</v>
       </c>
       <c r="G2" t="n">
         <v>364621.4287347366</v>
       </c>
       <c r="H2" t="n">
-        <v>364621.4287347366</v>
+        <v>364621.4287347365</v>
       </c>
       <c r="I2" t="n">
         <v>364621.4287347366</v>
       </c>
       <c r="J2" t="n">
-        <v>364621.4287347355</v>
+        <v>364621.4287347356</v>
       </c>
       <c r="K2" t="n">
-        <v>364621.428734736</v>
+        <v>364621.4287347357</v>
       </c>
       <c r="L2" t="n">
         <v>364621.4287347365</v>
       </c>
       <c r="M2" t="n">
-        <v>364621.4287347366</v>
+        <v>364621.4287347365</v>
       </c>
       <c r="N2" t="n">
-        <v>364621.4287347366</v>
+        <v>364621.4287347365</v>
       </c>
       <c r="O2" t="n">
-        <v>364621.4287347366</v>
+        <v>364621.4287347365</v>
       </c>
       <c r="P2" t="n">
         <v>364621.4287347365</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31574.9883408653</v>
+        <v>31574.98834086509</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>70095.89052197855</v>
+        <v>70095.89052197852</v>
       </c>
       <c r="E3" t="n">
-        <v>241499.6676820805</v>
+        <v>241499.6676820819</v>
       </c>
       <c r="F3" t="n">
-        <v>1.100688322708265e-09</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>61586.00037134552</v>
+        <v>61586.00037134522</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>107374.4157946593</v>
+        <v>107374.4157946592</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>108783.1384666377</v>
       </c>
       <c r="M3" t="n">
-        <v>78698.0459203949</v>
+        <v>78698.04592039503</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>23680.70510584512</v>
+        <v>23680.7051058451</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>351349.4044685726</v>
+        <v>351349.4044685727</v>
       </c>
       <c r="C4" t="n">
-        <v>351349.4044685726</v>
+        <v>351349.4044685727</v>
       </c>
       <c r="D4" t="n">
-        <v>310922.4909626715</v>
+        <v>310922.4909626716</v>
       </c>
       <c r="E4" t="n">
         <v>183662.1410149565</v>
       </c>
       <c r="F4" t="n">
-        <v>183662.1410149564</v>
+        <v>183662.1410149565</v>
       </c>
       <c r="G4" t="n">
         <v>241089.1036958374</v>
@@ -26448,7 +26448,7 @@
         <v>241089.1036958374</v>
       </c>
       <c r="M4" t="n">
-        <v>241089.1036958374</v>
+        <v>241089.1036958375</v>
       </c>
       <c r="N4" t="n">
         <v>241089.1036958374</v>
@@ -26457,7 +26457,7 @@
         <v>241089.1036958374</v>
       </c>
       <c r="P4" t="n">
-        <v>241089.1036958375</v>
+        <v>241089.1036958374</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39356.12144175306</v>
+        <v>39356.12144175302</v>
       </c>
       <c r="C5" t="n">
-        <v>39356.12144175306</v>
+        <v>39356.12144175302</v>
       </c>
       <c r="D5" t="n">
-        <v>53076.07812248671</v>
+        <v>53076.07812248667</v>
       </c>
       <c r="E5" t="n">
-        <v>48168.48921240019</v>
+        <v>48168.48921240021</v>
       </c>
       <c r="F5" t="n">
         <v>48168.48921240021</v>
       </c>
       <c r="G5" t="n">
-        <v>54640.33104392352</v>
+        <v>54640.33104392349</v>
       </c>
       <c r="H5" t="n">
         <v>54640.33104392349</v>
@@ -26497,19 +26497,19 @@
         <v>63400.5174714907</v>
       </c>
       <c r="L5" t="n">
-        <v>54640.33104392346</v>
+        <v>54640.33104392348</v>
       </c>
       <c r="M5" t="n">
-        <v>54640.33104392349</v>
+        <v>54640.3310439235</v>
       </c>
       <c r="N5" t="n">
         <v>54640.33104392349</v>
       </c>
       <c r="O5" t="n">
-        <v>54640.33104392348</v>
+        <v>54640.33104392349</v>
       </c>
       <c r="P5" t="n">
-        <v>54640.3310439235</v>
+        <v>54640.33104392349</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-57659.08551645459</v>
+        <v>-57659.08551645444</v>
       </c>
       <c r="C6" t="n">
-        <v>-26084.09717558924</v>
+        <v>-26084.09717558938</v>
       </c>
       <c r="D6" t="n">
-        <v>-69473.03087240033</v>
+        <v>-69473.03087240046</v>
       </c>
       <c r="E6" t="n">
-        <v>-156664.1119556988</v>
+        <v>-156916.5079703373</v>
       </c>
       <c r="F6" t="n">
-        <v>84835.5557263808</v>
+        <v>84583.1597117448</v>
       </c>
       <c r="G6" t="n">
-        <v>7305.993623630187</v>
+        <v>7305.993623630449</v>
       </c>
       <c r="H6" t="n">
-        <v>68891.99399497591</v>
+        <v>68891.99399497562</v>
       </c>
       <c r="I6" t="n">
-        <v>68891.99399497565</v>
+        <v>68891.99399497568</v>
       </c>
       <c r="J6" t="n">
-        <v>-48391.53372544275</v>
+        <v>-48391.53372544258</v>
       </c>
       <c r="K6" t="n">
-        <v>58982.88206921694</v>
+        <v>58982.88206921671</v>
       </c>
       <c r="L6" t="n">
-        <v>-39891.14447166202</v>
+        <v>-39891.14447166212</v>
       </c>
       <c r="M6" t="n">
-        <v>-9806.051925419233</v>
+        <v>-9806.051925419502</v>
       </c>
       <c r="N6" t="n">
-        <v>68891.99399497574</v>
+        <v>68891.99399497562</v>
       </c>
       <c r="O6" t="n">
-        <v>45211.28888913055</v>
+        <v>45211.28888913048</v>
       </c>
       <c r="P6" t="n">
-        <v>68891.99399497555</v>
+        <v>68891.99399497559</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="F2" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="G2" t="n">
         <v>165.5798044656034</v>
@@ -26713,19 +26713,19 @@
         <v>106.5833818464879</v>
       </c>
       <c r="L2" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="M2" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="N2" t="n">
         <v>165.5798044656034</v>
       </c>
       <c r="O2" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="P2" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.01032947988729</v>
+        <v>95.0103294798887</v>
       </c>
       <c r="F3" t="n">
         <v>95.0103294798887</v>
       </c>
       <c r="G3" t="n">
-        <v>95.01032947988901</v>
+        <v>95.01032947988871</v>
       </c>
       <c r="H3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.01032947988871</v>
       </c>
       <c r="I3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.01032947988871</v>
       </c>
       <c r="J3" t="n">
-        <v>95.0103294798887</v>
+        <v>95.01032947988871</v>
       </c>
       <c r="K3" t="n">
-        <v>95.0103294798887</v>
+        <v>95.01032947988871</v>
       </c>
       <c r="L3" t="n">
-        <v>95.0103294798887</v>
+        <v>95.01032947988871</v>
       </c>
       <c r="M3" t="n">
-        <v>95.0103294798887</v>
+        <v>95.01032947988871</v>
       </c>
       <c r="N3" t="n">
-        <v>95.0103294798887</v>
+        <v>95.01032947988871</v>
       </c>
       <c r="O3" t="n">
-        <v>95.0103294798887</v>
+        <v>95.01032947988871</v>
       </c>
       <c r="P3" t="n">
-        <v>95.0103294798887</v>
+        <v>95.01032947988871</v>
       </c>
     </row>
     <row r="4">
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94.21910266041215</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="C4" t="n">
-        <v>94.21910266041215</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="D4" t="n">
-        <v>319.876284909321</v>
+        <v>319.8762849093202</v>
       </c>
       <c r="E4" t="n">
-        <v>635.6739684151828</v>
+        <v>635.6739684151827</v>
       </c>
       <c r="F4" t="n">
         <v>635.6739684151827</v>
       </c>
       <c r="G4" t="n">
-        <v>635.673968415183</v>
+        <v>635.6739684151827</v>
       </c>
       <c r="H4" t="n">
         <v>635.6739684151827</v>
@@ -26817,7 +26817,7 @@
         <v>861.3311506640911</v>
       </c>
       <c r="L4" t="n">
-        <v>635.6739684151822</v>
+        <v>635.6739684151823</v>
       </c>
       <c r="M4" t="n">
         <v>635.6739684151827</v>
@@ -26826,7 +26826,7 @@
         <v>635.6739684151827</v>
       </c>
       <c r="O4" t="n">
-        <v>635.6739684151823</v>
+        <v>635.6739684151827</v>
       </c>
       <c r="P4" t="n">
         <v>635.6739684151827</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>76.9825004641816</v>
+        <v>76.98250046418153</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.60088138230631</v>
+        <v>29.60088138230637</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.6008813823064</v>
+        <v>29.60088138230637</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.01032947988729</v>
+        <v>95.0103294798887</v>
       </c>
       <c r="F3" t="n">
-        <v>1.406874616804998e-12</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94.21910266041215</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>225.6571822489088</v>
+        <v>225.6571822489087</v>
       </c>
       <c r="E4" t="n">
-        <v>315.7976835058618</v>
+        <v>315.7976835058624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>319.8762849093204</v>
+        <v>319.8762849093198</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>315.7976835058623</v>
+        <v>315.7976835058628</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>76.9825004641816</v>
+        <v>76.98250046418153</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.60088138230631</v>
+        <v>29.60088138230637</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>94.21910266041215</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>225.6571822489088</v>
+        <v>225.6571822489087</v>
       </c>
       <c r="M4" t="n">
-        <v>315.7976835058618</v>
+        <v>315.7976835058624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>295.8840014624268</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>283.8953184201085</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>274.8766224646371</v>
       </c>
       <c r="E2" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>327.0214931596409</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>317.7238440199424</v>
       </c>
       <c r="H2" t="n">
         <v>329.4930616586638</v>
@@ -27430,7 +27430,7 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>127.8962541458874</v>
       </c>
       <c r="U2" t="n">
         <v>252.3364829231459</v>
@@ -27442,10 +27442,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>283.9907364133094</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>328.5708767099146</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -27464,19 +27464,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>51.33862718328533</v>
+        <v>130.2680066772467</v>
       </c>
       <c r="F3" t="n">
-        <v>39.12775740921225</v>
+        <v>39.12775740921288</v>
       </c>
       <c r="G3" t="n">
-        <v>44.45302935365724</v>
+        <v>33.22211231653674</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>4.719376218357411</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>131.8925636657372</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
         <v>238.9027100790231</v>
@@ -27537,13 +27537,13 @@
         <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
-        <v>73.70070718252435</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
-        <v>106.7049565500718</v>
+        <v>57.32207158010337</v>
       </c>
       <c r="E4" t="n">
-        <v>150.4889240962943</v>
+        <v>56.26982143588282</v>
       </c>
       <c r="F4" t="n">
         <v>150.9558484244806</v>
@@ -27558,7 +27558,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
         <v>148.0265635717656</v>
@@ -27588,19 +27588,19 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>136.6280609920658</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>284.3183371157911</v>
+        <v>260.7868176924696</v>
       </c>
       <c r="V4" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>189.0757348073633</v>
       </c>
       <c r="X4" t="n">
-        <v>134.7208368031658</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
         <v>219.8148072196457</v>
@@ -27622,13 +27622,13 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>307.8496770716637</v>
       </c>
       <c r="F5" t="n">
-        <v>315.7905761225192</v>
+        <v>315.7905761225198</v>
       </c>
       <c r="G5" t="n">
-        <v>317.7238440199417</v>
+        <v>317.7238440199424</v>
       </c>
       <c r="H5" t="n">
         <v>329.4930616586638</v>
@@ -27673,13 +27673,13 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>239.3903787026059</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>275.921395217684</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>283.9907364133101</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>63.60614569303675</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>65.86753337104332</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>43.23114797927852</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>62.56954422040702</v>
       </c>
       <c r="F6" t="n">
         <v>133.3468600696244</v>
@@ -27713,7 +27713,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>43.89670304955227</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>92.57915013526249</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>122.0907418172608</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>131.8925636657372</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
         <v>238.9027100790231</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.719814997536</v>
+        <v>98.73162937424557</v>
       </c>
       <c r="C7" t="n">
         <v>167.9198098429365</v>
@@ -27819,28 +27819,28 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>65.03837794847459</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>117.3535623099372</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>136.6280609920664</v>
       </c>
       <c r="U7" t="n">
-        <v>190.099234455379</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>163.9088487367495</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
-        <v>228.939939463578</v>
+        <v>134.7208368031665</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.8148072196457</v>
+        <v>125.5957045592342</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>293.7127579906591</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
@@ -27859,13 +27859,13 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>109.0908309468243</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>90.13339387361037</v>
+        <v>90.13339387361111</v>
       </c>
       <c r="G8" t="n">
-        <v>92.0666617710329</v>
+        <v>92.06666177103364</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
@@ -27901,7 +27901,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -27916,10 +27916,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>58.33355416440133</v>
       </c>
       <c r="Y8" t="n">
-        <v>69.73015196059936</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -27938,13 +27938,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -27989,16 +27989,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>80.02960227130077</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>164.5520106477148</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
         <v>151.5411742405149</v>
@@ -28026,10 +28026,10 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>25.11865220031669</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
@@ -28065,7 +28065,7 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>155.728251177002</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="C11" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="D11" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="E11" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="F11" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="G11" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="H11" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="I11" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.73916953180481</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S11" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="T11" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="U11" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="V11" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="W11" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="X11" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="Y11" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="C13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="D13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="E13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="F13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="G13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="H13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="I13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="J13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="K13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="L13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="M13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="N13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="O13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="P13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="R13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="S13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="T13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="U13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="V13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="W13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="X13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.5973040014218</v>
+        <v>88.59730400142186</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="C14" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="D14" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="E14" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="F14" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="G14" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="H14" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="I14" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S14" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="T14" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="U14" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="V14" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="W14" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="X14" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="Y14" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="C16" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="D16" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="E16" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="F16" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="G16" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="H16" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="I16" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="J16" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="K16" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="L16" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="M16" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="N16" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="O16" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="P16" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="R16" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="S16" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="T16" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="U16" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="V16" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="W16" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="X16" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="Y16" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
     </row>
     <row r="17">
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.73916953180436</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S17" t="n">
         <v>165.5798044656034</v>
@@ -28743,7 +28743,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J19" t="n">
-        <v>47.34362796447562</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>23.80540818138461</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R19" t="n">
-        <v>140.32293915197</v>
+        <v>47.13622270817554</v>
       </c>
       <c r="S19" t="n">
         <v>165.5798044656034</v>
@@ -28776,7 +28776,7 @@
         <v>165.5798044656034</v>
       </c>
       <c r="U19" t="n">
-        <v>72.39308802180838</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="V19" t="n">
         <v>165.5798044656034</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>72.39308802180905</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="C22" t="n">
         <v>165.5798044656034</v>
@@ -28965,7 +28965,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>57.30220765250003</v>
       </c>
       <c r="F22" t="n">
         <v>150.9558484244806</v>
@@ -28980,7 +28980,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J22" t="n">
-        <v>47.34362796447564</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29202,7 +29202,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>57.30220765250003</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
@@ -29211,13 +29211,13 @@
         <v>165.5798044656034</v>
       </c>
       <c r="H25" t="n">
-        <v>156.2556384040709</v>
+        <v>110.4125499247522</v>
       </c>
       <c r="I25" t="n">
         <v>137.6086505120454</v>
       </c>
       <c r="J25" t="n">
-        <v>47.34362796447564</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29314,7 +29314,7 @@
         <v>106.5833818464879</v>
       </c>
       <c r="P26" t="n">
-        <v>106.5833818464879</v>
+        <v>106.5833818464874</v>
       </c>
       <c r="Q26" t="n">
         <v>106.5833818464879</v>
@@ -29457,7 +29457,7 @@
         <v>106.5833818464879</v>
       </c>
       <c r="K28" t="n">
-        <v>84.63111518229547</v>
+        <v>106.5833818464879</v>
       </c>
       <c r="L28" t="n">
         <v>106.5833818464879</v>
@@ -29469,7 +29469,7 @@
         <v>106.5833818464879</v>
       </c>
       <c r="O28" t="n">
-        <v>106.5833818464879</v>
+        <v>84.63111518229523</v>
       </c>
       <c r="P28" t="n">
         <v>106.5833818464879</v>
@@ -29694,10 +29694,10 @@
         <v>106.5833818464879</v>
       </c>
       <c r="K31" t="n">
-        <v>84.63111518229445</v>
+        <v>106.5833818464879</v>
       </c>
       <c r="L31" t="n">
-        <v>106.5833818464879</v>
+        <v>84.63111518229516</v>
       </c>
       <c r="M31" t="n">
         <v>106.5833818464879</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="C32" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="D32" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="E32" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="F32" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="G32" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="H32" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="I32" t="n">
-        <v>156.3638580504326</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.73916953180444</v>
+        <v>65.73916953180306</v>
       </c>
       <c r="S32" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="T32" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="U32" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="V32" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="W32" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="X32" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="Y32" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
     </row>
     <row r="33">
@@ -29904,10 +29904,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="C34" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="D34" t="n">
         <v>151.5411742405149</v>
@@ -29919,13 +29919,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="H34" t="n">
-        <v>156.2556384040709</v>
+        <v>63.06892196027559</v>
       </c>
       <c r="I34" t="n">
-        <v>44.42193406825038</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J34" t="n">
         <v>47.34362796447565</v>
@@ -29955,25 +29955,25 @@
         <v>140.32293915197</v>
       </c>
       <c r="S34" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="T34" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="U34" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="V34" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="W34" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="X34" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="Y34" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="C35" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="D35" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="E35" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="F35" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="G35" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="H35" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="I35" t="n">
         <v>156.363858050434</v>
@@ -30034,25 +30034,25 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S35" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="T35" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="U35" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="V35" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="W35" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="X35" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="Y35" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="C37" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30156,7 +30156,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="H37" t="n">
         <v>156.2556384040709</v>
@@ -30192,25 +30192,25 @@
         <v>140.32293915197</v>
       </c>
       <c r="S37" t="n">
-        <v>72.39308802180832</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="T37" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="U37" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="V37" t="n">
-        <v>165.5798044656034</v>
+        <v>72.39308802180815</v>
       </c>
       <c r="W37" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="X37" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="Y37" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
     </row>
     <row r="38">
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R40" t="n">
         <v>140.32293915197</v>
@@ -30435,7 +30435,7 @@
         <v>165.5798044656034</v>
       </c>
       <c r="U40" t="n">
-        <v>96.19849620319351</v>
+        <v>72.39308802180895</v>
       </c>
       <c r="V40" t="n">
         <v>165.5798044656034</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="C41" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="D41" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="E41" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="F41" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="G41" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="H41" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="I41" t="n">
         <v>156.363858050434</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.73916953180354</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S41" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="T41" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="U41" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="V41" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="W41" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="X41" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="Y41" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="C43" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30630,10 +30630,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="H43" t="n">
-        <v>156.2556384040709</v>
+        <v>63.06892196027654</v>
       </c>
       <c r="I43" t="n">
         <v>137.6086505120454</v>
@@ -30666,25 +30666,25 @@
         <v>140.32293915197</v>
       </c>
       <c r="S43" t="n">
-        <v>72.39308802180821</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="T43" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="U43" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="V43" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="W43" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="X43" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="Y43" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="C44" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="D44" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="E44" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="F44" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="G44" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="H44" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="I44" t="n">
         <v>156.363858050434</v>
@@ -30745,25 +30745,25 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S44" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="T44" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="U44" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="V44" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="W44" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="X44" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="Y44" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
     </row>
     <row r="45">
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="C46" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,7 +30867,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="H46" t="n">
         <v>156.2556384040709</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R46" t="n">
         <v>140.32293915197</v>
       </c>
       <c r="S46" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="T46" t="n">
-        <v>165.5798044656035</v>
+        <v>72.39308802180892</v>
       </c>
       <c r="U46" t="n">
-        <v>96.19849620319283</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="V46" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="W46" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="X46" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="Y46" t="n">
-        <v>165.5798044656035</v>
+        <v>165.5798044656034</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3819510732859788</v>
+        <v>0.3819510732859844</v>
       </c>
       <c r="H11" t="n">
-        <v>3.911656429290031</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I11" t="n">
-        <v>14.72516875285771</v>
+        <v>14.72516875285793</v>
       </c>
       <c r="J11" t="n">
-        <v>32.41761990630587</v>
+        <v>32.41761990630635</v>
       </c>
       <c r="K11" t="n">
-        <v>48.58560883850136</v>
+        <v>48.58560883850208</v>
       </c>
       <c r="L11" t="n">
-        <v>60.27474399757715</v>
+        <v>60.27474399757804</v>
       </c>
       <c r="M11" t="n">
-        <v>67.06726639712667</v>
+        <v>67.06726639712765</v>
       </c>
       <c r="N11" t="n">
-        <v>68.15248488410046</v>
+        <v>68.15248488410147</v>
       </c>
       <c r="O11" t="n">
-        <v>64.354458899113</v>
+        <v>64.35445889911395</v>
       </c>
       <c r="P11" t="n">
-        <v>54.92504177736539</v>
+        <v>54.92504177736621</v>
       </c>
       <c r="Q11" t="n">
-        <v>41.24641896531127</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R11" t="n">
-        <v>23.99273410730039</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S11" t="n">
-        <v>8.70371008250425</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T11" t="n">
-        <v>1.671990823309373</v>
+        <v>1.671990823309398</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03055608586287829</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2043618407680595</v>
+        <v>0.2043618407680625</v>
       </c>
       <c r="H12" t="n">
-        <v>1.973705146365206</v>
+        <v>1.973705146365235</v>
       </c>
       <c r="I12" t="n">
-        <v>7.036142324689767</v>
+        <v>7.036142324689871</v>
       </c>
       <c r="J12" t="n">
-        <v>19.30771233326653</v>
+        <v>19.30771233326682</v>
       </c>
       <c r="K12" t="n">
-        <v>32.99995566472651</v>
+        <v>32.999955664727</v>
       </c>
       <c r="L12" t="n">
-        <v>44.37251283869642</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M12" t="n">
-        <v>51.78062956653856</v>
+        <v>51.78062956653933</v>
       </c>
       <c r="N12" t="n">
-        <v>53.1511087530928</v>
+        <v>53.15110875309359</v>
       </c>
       <c r="O12" t="n">
-        <v>48.62288059712684</v>
+        <v>48.62288059712757</v>
       </c>
       <c r="P12" t="n">
-        <v>39.02414834806918</v>
+        <v>39.02414834806976</v>
       </c>
       <c r="Q12" t="n">
-        <v>26.08660970927019</v>
+        <v>26.08660970927058</v>
       </c>
       <c r="R12" t="n">
-        <v>12.68836060488005</v>
+        <v>12.68836060488024</v>
       </c>
       <c r="S12" t="n">
-        <v>3.7959315598804</v>
+        <v>3.795931559880456</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8237216301133622</v>
+        <v>0.8237216301133744</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01344485794526708</v>
+        <v>0.01344485794526727</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1713301023407803</v>
+        <v>0.1713301023407829</v>
       </c>
       <c r="H13" t="n">
-        <v>1.52328036444803</v>
+        <v>1.523280364448053</v>
       </c>
       <c r="I13" t="n">
-        <v>5.152363441302741</v>
+        <v>5.152363441302818</v>
       </c>
       <c r="J13" t="n">
-        <v>12.11303823549317</v>
+        <v>12.11303823549335</v>
       </c>
       <c r="K13" t="n">
-        <v>19.90544279922884</v>
+        <v>19.90544279922914</v>
       </c>
       <c r="L13" t="n">
-        <v>25.47211357891929</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M13" t="n">
-        <v>26.85677231510977</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N13" t="n">
-        <v>26.21817829729416</v>
+        <v>26.21817829729455</v>
       </c>
       <c r="O13" t="n">
-        <v>24.21673119267685</v>
+        <v>24.21673119267721</v>
       </c>
       <c r="P13" t="n">
-        <v>20.72159710492491</v>
+        <v>20.72159710492522</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.34655975146298</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R13" t="n">
-        <v>7.703624419795449</v>
+        <v>7.703624419795562</v>
       </c>
       <c r="S13" t="n">
-        <v>2.985816419884325</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7320468009106067</v>
+        <v>0.7320468009106176</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009345278309497121</v>
+        <v>0.009345278309497258</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3819510732859857</v>
+        <v>0.3819510732859845</v>
       </c>
       <c r="H17" t="n">
-        <v>3.911656429290102</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I17" t="n">
-        <v>14.72516875285798</v>
+        <v>14.72516875285793</v>
       </c>
       <c r="J17" t="n">
-        <v>32.41761990630646</v>
+        <v>32.41761990630636</v>
       </c>
       <c r="K17" t="n">
-        <v>48.58560883850224</v>
+        <v>48.58560883850209</v>
       </c>
       <c r="L17" t="n">
-        <v>60.27474399757823</v>
+        <v>60.27474399757805</v>
       </c>
       <c r="M17" t="n">
-        <v>67.06726639712788</v>
+        <v>67.06726639712767</v>
       </c>
       <c r="N17" t="n">
-        <v>68.1524848841017</v>
+        <v>68.15248488410148</v>
       </c>
       <c r="O17" t="n">
-        <v>64.35445889911416</v>
+        <v>64.35445889911396</v>
       </c>
       <c r="P17" t="n">
-        <v>54.92504177736639</v>
+        <v>54.92504177736622</v>
       </c>
       <c r="Q17" t="n">
-        <v>41.24641896531202</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R17" t="n">
-        <v>23.99273410730082</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S17" t="n">
-        <v>8.703710082504408</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T17" t="n">
-        <v>1.671990823309403</v>
+        <v>1.671990823309398</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03055608586287885</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2043618407680632</v>
+        <v>0.2043618407680625</v>
       </c>
       <c r="H18" t="n">
-        <v>1.973705146365242</v>
+        <v>1.973705146365236</v>
       </c>
       <c r="I18" t="n">
-        <v>7.036142324689894</v>
+        <v>7.036142324689872</v>
       </c>
       <c r="J18" t="n">
-        <v>19.30771233326688</v>
+        <v>19.30771233326682</v>
       </c>
       <c r="K18" t="n">
-        <v>32.99995566472711</v>
+        <v>32.99995566472701</v>
       </c>
       <c r="L18" t="n">
-        <v>44.37251283869723</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M18" t="n">
-        <v>51.7806295665395</v>
+        <v>51.78062956653934</v>
       </c>
       <c r="N18" t="n">
-        <v>53.15110875309376</v>
+        <v>53.1511087530936</v>
       </c>
       <c r="O18" t="n">
-        <v>48.62288059712773</v>
+        <v>48.62288059712758</v>
       </c>
       <c r="P18" t="n">
-        <v>39.02414834806989</v>
+        <v>39.02414834806977</v>
       </c>
       <c r="Q18" t="n">
-        <v>26.08660970927066</v>
+        <v>26.08660970927058</v>
       </c>
       <c r="R18" t="n">
-        <v>12.68836060488028</v>
+        <v>12.68836060488024</v>
       </c>
       <c r="S18" t="n">
-        <v>3.795931559880469</v>
+        <v>3.795931559880457</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8237216301133771</v>
+        <v>0.8237216301133745</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01344485794526732</v>
+        <v>0.01344485794526728</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1713301023407834</v>
+        <v>0.1713301023407829</v>
       </c>
       <c r="H19" t="n">
-        <v>1.523280364448057</v>
+        <v>1.523280364448053</v>
       </c>
       <c r="I19" t="n">
-        <v>5.152363441302835</v>
+        <v>5.152363441302819</v>
       </c>
       <c r="J19" t="n">
-        <v>12.11303823549339</v>
+        <v>12.11303823549335</v>
       </c>
       <c r="K19" t="n">
-        <v>19.9054427992292</v>
+        <v>19.90544279922914</v>
       </c>
       <c r="L19" t="n">
-        <v>25.47211357891975</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M19" t="n">
-        <v>26.85677231511026</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N19" t="n">
-        <v>26.21817829729463</v>
+        <v>26.21817829729455</v>
       </c>
       <c r="O19" t="n">
-        <v>24.21673119267729</v>
+        <v>24.21673119267722</v>
       </c>
       <c r="P19" t="n">
-        <v>20.72159710492529</v>
+        <v>20.72159710492523</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.34655975146324</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R19" t="n">
-        <v>7.703624419795588</v>
+        <v>7.703624419795564</v>
       </c>
       <c r="S19" t="n">
-        <v>2.98581641988438</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7320468009106199</v>
+        <v>0.7320468009106177</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009345278309497289</v>
+        <v>0.00934527830949726</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>0.3819510732859845</v>
       </c>
       <c r="H20" t="n">
-        <v>3.91165642929009</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I20" t="n">
         <v>14.72516875285793</v>
@@ -32473,37 +32473,37 @@
         <v>32.41761990630636</v>
       </c>
       <c r="K20" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850209</v>
       </c>
       <c r="L20" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757805</v>
       </c>
       <c r="M20" t="n">
-        <v>67.06726639712768</v>
+        <v>67.06726639712767</v>
       </c>
       <c r="N20" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410148</v>
       </c>
       <c r="O20" t="n">
-        <v>64.35445889911398</v>
+        <v>64.35445889911396</v>
       </c>
       <c r="P20" t="n">
         <v>54.92504177736622</v>
       </c>
       <c r="Q20" t="n">
-        <v>41.24641896531189</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R20" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S20" t="n">
-        <v>8.703710082504381</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T20" t="n">
         <v>1.671990823309398</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>1.973705146365236</v>
       </c>
       <c r="I21" t="n">
-        <v>7.036142324689874</v>
+        <v>7.036142324689872</v>
       </c>
       <c r="J21" t="n">
         <v>19.30771233326682</v>
@@ -32555,10 +32555,10 @@
         <v>32.99995566472701</v>
       </c>
       <c r="L21" t="n">
-        <v>44.37251283869709</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M21" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653934</v>
       </c>
       <c r="N21" t="n">
         <v>53.1511087530936</v>
@@ -32579,7 +32579,7 @@
         <v>3.795931559880457</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8237216301133746</v>
+        <v>0.8237216301133745</v>
       </c>
       <c r="U21" t="n">
         <v>0.01344485794526728</v>
@@ -32634,10 +32634,10 @@
         <v>19.90544279922914</v>
       </c>
       <c r="L22" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M22" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N22" t="n">
         <v>26.21817829729455</v>
@@ -32649,19 +32649,19 @@
         <v>20.72159710492523</v>
       </c>
       <c r="Q22" t="n">
-        <v>14.3465597514632</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R22" t="n">
-        <v>7.703624419795565</v>
+        <v>7.703624419795564</v>
       </c>
       <c r="S22" t="n">
-        <v>2.985816419884371</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7320468009106178</v>
+        <v>0.7320468009106177</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009345278309497261</v>
+        <v>0.00934527830949726</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>0.3819510732859845</v>
       </c>
       <c r="H23" t="n">
-        <v>3.91165642929009</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I23" t="n">
         <v>14.72516875285793</v>
@@ -32710,37 +32710,37 @@
         <v>32.41761990630636</v>
       </c>
       <c r="K23" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850209</v>
       </c>
       <c r="L23" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757805</v>
       </c>
       <c r="M23" t="n">
-        <v>67.06726639712768</v>
+        <v>67.06726639712767</v>
       </c>
       <c r="N23" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410148</v>
       </c>
       <c r="O23" t="n">
-        <v>64.35445889911398</v>
+        <v>64.35445889911396</v>
       </c>
       <c r="P23" t="n">
         <v>54.92504177736622</v>
       </c>
       <c r="Q23" t="n">
-        <v>41.24641896531189</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R23" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S23" t="n">
-        <v>8.703710082504381</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T23" t="n">
         <v>1.671990823309398</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>1.973705146365236</v>
       </c>
       <c r="I24" t="n">
-        <v>7.036142324689874</v>
+        <v>7.036142324689872</v>
       </c>
       <c r="J24" t="n">
         <v>19.30771233326682</v>
@@ -32792,10 +32792,10 @@
         <v>32.99995566472701</v>
       </c>
       <c r="L24" t="n">
-        <v>44.37251283869709</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M24" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653934</v>
       </c>
       <c r="N24" t="n">
         <v>53.1511087530936</v>
@@ -32816,7 +32816,7 @@
         <v>3.795931559880457</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8237216301133746</v>
+        <v>0.8237216301133745</v>
       </c>
       <c r="U24" t="n">
         <v>0.01344485794526728</v>
@@ -32871,10 +32871,10 @@
         <v>19.90544279922914</v>
       </c>
       <c r="L25" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M25" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N25" t="n">
         <v>26.21817829729455</v>
@@ -32886,19 +32886,19 @@
         <v>20.72159710492523</v>
       </c>
       <c r="Q25" t="n">
-        <v>14.3465597514632</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R25" t="n">
-        <v>7.703624419795565</v>
+        <v>7.703624419795564</v>
       </c>
       <c r="S25" t="n">
-        <v>2.985816419884371</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7320468009106178</v>
+        <v>0.7320468009106177</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009345278309497261</v>
+        <v>0.00934527830949726</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3819510732859844</v>
+        <v>0.3819510732859845</v>
       </c>
       <c r="H26" t="n">
         <v>3.911656429290089</v>
@@ -32944,25 +32944,25 @@
         <v>14.72516875285793</v>
       </c>
       <c r="J26" t="n">
-        <v>32.41761990630635</v>
+        <v>32.41761990630636</v>
       </c>
       <c r="K26" t="n">
-        <v>48.58560883850208</v>
+        <v>48.58560883850209</v>
       </c>
       <c r="L26" t="n">
-        <v>60.27474399757804</v>
+        <v>60.27474399757805</v>
       </c>
       <c r="M26" t="n">
-        <v>67.06726639712765</v>
+        <v>67.06726639712767</v>
       </c>
       <c r="N26" t="n">
-        <v>68.15248488410147</v>
+        <v>68.15248488410148</v>
       </c>
       <c r="O26" t="n">
-        <v>64.35445889911395</v>
+        <v>64.35445889911396</v>
       </c>
       <c r="P26" t="n">
-        <v>54.92504177736621</v>
+        <v>54.92504177736622</v>
       </c>
       <c r="Q26" t="n">
         <v>41.24641896531188</v>
@@ -33017,31 +33017,31 @@
         <v>0.2043618407680625</v>
       </c>
       <c r="H27" t="n">
-        <v>1.973705146365235</v>
+        <v>1.973705146365236</v>
       </c>
       <c r="I27" t="n">
-        <v>7.036142324689871</v>
+        <v>7.036142324689872</v>
       </c>
       <c r="J27" t="n">
         <v>19.30771233326682</v>
       </c>
       <c r="K27" t="n">
-        <v>32.999955664727</v>
+        <v>32.99995566472701</v>
       </c>
       <c r="L27" t="n">
         <v>44.37251283869708</v>
       </c>
       <c r="M27" t="n">
-        <v>51.78062956653933</v>
+        <v>51.78062956653934</v>
       </c>
       <c r="N27" t="n">
-        <v>53.15110875309359</v>
+        <v>53.1511087530936</v>
       </c>
       <c r="O27" t="n">
-        <v>48.62288059712757</v>
+        <v>48.62288059712758</v>
       </c>
       <c r="P27" t="n">
-        <v>39.02414834806976</v>
+        <v>39.02414834806977</v>
       </c>
       <c r="Q27" t="n">
         <v>26.08660970927058</v>
@@ -33050,13 +33050,13 @@
         <v>12.68836060488024</v>
       </c>
       <c r="S27" t="n">
-        <v>3.795931559880456</v>
+        <v>3.795931559880457</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8237216301133744</v>
+        <v>0.8237216301133745</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01344485794526727</v>
+        <v>0.01344485794526728</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,7 +33099,7 @@
         <v>1.523280364448053</v>
       </c>
       <c r="I28" t="n">
-        <v>5.152363441302818</v>
+        <v>5.152363441302819</v>
       </c>
       <c r="J28" t="n">
         <v>12.11303823549335</v>
@@ -33117,25 +33117,25 @@
         <v>26.21817829729455</v>
       </c>
       <c r="O28" t="n">
-        <v>24.21673119267721</v>
+        <v>24.21673119267722</v>
       </c>
       <c r="P28" t="n">
-        <v>20.72159710492522</v>
+        <v>20.72159710492523</v>
       </c>
       <c r="Q28" t="n">
         <v>14.34655975146319</v>
       </c>
       <c r="R28" t="n">
-        <v>7.703624419795562</v>
+        <v>7.703624419795564</v>
       </c>
       <c r="S28" t="n">
         <v>2.98581641988437</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7320468009106176</v>
+        <v>0.7320468009106177</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009345278309497258</v>
+        <v>0.00934527830949726</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3819510732859844</v>
+        <v>0.3819510732859845</v>
       </c>
       <c r="H29" t="n">
         <v>3.911656429290089</v>
@@ -33181,25 +33181,25 @@
         <v>14.72516875285793</v>
       </c>
       <c r="J29" t="n">
-        <v>32.41761990630635</v>
+        <v>32.41761990630636</v>
       </c>
       <c r="K29" t="n">
-        <v>48.58560883850208</v>
+        <v>48.58560883850209</v>
       </c>
       <c r="L29" t="n">
-        <v>60.27474399757804</v>
+        <v>60.27474399757805</v>
       </c>
       <c r="M29" t="n">
-        <v>67.06726639712765</v>
+        <v>67.06726639712767</v>
       </c>
       <c r="N29" t="n">
-        <v>68.15248488410147</v>
+        <v>68.15248488410148</v>
       </c>
       <c r="O29" t="n">
-        <v>64.35445889911395</v>
+        <v>64.35445889911396</v>
       </c>
       <c r="P29" t="n">
-        <v>54.92504177736621</v>
+        <v>54.92504177736622</v>
       </c>
       <c r="Q29" t="n">
         <v>41.24641896531188</v>
@@ -33254,31 +33254,31 @@
         <v>0.2043618407680625</v>
       </c>
       <c r="H30" t="n">
-        <v>1.973705146365235</v>
+        <v>1.973705146365236</v>
       </c>
       <c r="I30" t="n">
-        <v>7.036142324689871</v>
+        <v>7.036142324689872</v>
       </c>
       <c r="J30" t="n">
         <v>19.30771233326682</v>
       </c>
       <c r="K30" t="n">
-        <v>32.999955664727</v>
+        <v>32.99995566472701</v>
       </c>
       <c r="L30" t="n">
         <v>44.37251283869708</v>
       </c>
       <c r="M30" t="n">
-        <v>51.78062956653933</v>
+        <v>51.78062956653934</v>
       </c>
       <c r="N30" t="n">
-        <v>53.15110875309359</v>
+        <v>53.1511087530936</v>
       </c>
       <c r="O30" t="n">
-        <v>48.62288059712757</v>
+        <v>48.62288059712758</v>
       </c>
       <c r="P30" t="n">
-        <v>39.02414834806976</v>
+        <v>39.02414834806977</v>
       </c>
       <c r="Q30" t="n">
         <v>26.08660970927058</v>
@@ -33287,13 +33287,13 @@
         <v>12.68836060488024</v>
       </c>
       <c r="S30" t="n">
-        <v>3.795931559880456</v>
+        <v>3.795931559880457</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8237216301133744</v>
+        <v>0.8237216301133745</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01344485794526727</v>
+        <v>0.01344485794526728</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,7 +33336,7 @@
         <v>1.523280364448053</v>
       </c>
       <c r="I31" t="n">
-        <v>5.152363441302818</v>
+        <v>5.152363441302819</v>
       </c>
       <c r="J31" t="n">
         <v>12.11303823549335</v>
@@ -33354,25 +33354,25 @@
         <v>26.21817829729455</v>
       </c>
       <c r="O31" t="n">
-        <v>24.21673119267721</v>
+        <v>24.21673119267722</v>
       </c>
       <c r="P31" t="n">
-        <v>20.72159710492522</v>
+        <v>20.72159710492523</v>
       </c>
       <c r="Q31" t="n">
         <v>14.34655975146319</v>
       </c>
       <c r="R31" t="n">
-        <v>7.703624419795562</v>
+        <v>7.703624419795564</v>
       </c>
       <c r="S31" t="n">
         <v>2.98581641988437</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7320468009106176</v>
+        <v>0.7320468009106177</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009345278309497258</v>
+        <v>0.00934527830949726</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3819510732859844</v>
+        <v>0.3819510732859845</v>
       </c>
       <c r="H32" t="n">
         <v>3.911656429290089</v>
@@ -33418,25 +33418,25 @@
         <v>14.72516875285793</v>
       </c>
       <c r="J32" t="n">
-        <v>32.41761990630635</v>
+        <v>32.41761990630636</v>
       </c>
       <c r="K32" t="n">
-        <v>48.58560883850208</v>
+        <v>48.58560883850209</v>
       </c>
       <c r="L32" t="n">
-        <v>60.27474399757804</v>
+        <v>60.27474399757805</v>
       </c>
       <c r="M32" t="n">
-        <v>67.06726639712765</v>
+        <v>67.06726639712767</v>
       </c>
       <c r="N32" t="n">
-        <v>68.15248488410147</v>
+        <v>68.15248488410148</v>
       </c>
       <c r="O32" t="n">
-        <v>64.35445889911395</v>
+        <v>64.35445889911396</v>
       </c>
       <c r="P32" t="n">
-        <v>54.92504177736621</v>
+        <v>54.92504177736622</v>
       </c>
       <c r="Q32" t="n">
         <v>41.24641896531188</v>
@@ -33491,31 +33491,31 @@
         <v>0.2043618407680625</v>
       </c>
       <c r="H33" t="n">
-        <v>1.973705146365235</v>
+        <v>1.973705146365236</v>
       </c>
       <c r="I33" t="n">
-        <v>7.036142324689871</v>
+        <v>7.036142324689872</v>
       </c>
       <c r="J33" t="n">
         <v>19.30771233326682</v>
       </c>
       <c r="K33" t="n">
-        <v>32.999955664727</v>
+        <v>32.99995566472701</v>
       </c>
       <c r="L33" t="n">
         <v>44.37251283869708</v>
       </c>
       <c r="M33" t="n">
-        <v>51.78062956653933</v>
+        <v>51.78062956653934</v>
       </c>
       <c r="N33" t="n">
-        <v>53.15110875309359</v>
+        <v>53.1511087530936</v>
       </c>
       <c r="O33" t="n">
-        <v>48.62288059712757</v>
+        <v>48.62288059712758</v>
       </c>
       <c r="P33" t="n">
-        <v>39.02414834806976</v>
+        <v>39.02414834806977</v>
       </c>
       <c r="Q33" t="n">
         <v>26.08660970927058</v>
@@ -33524,13 +33524,13 @@
         <v>12.68836060488024</v>
       </c>
       <c r="S33" t="n">
-        <v>3.795931559880456</v>
+        <v>3.795931559880457</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8237216301133744</v>
+        <v>0.8237216301133745</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01344485794526727</v>
+        <v>0.01344485794526728</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,7 +33573,7 @@
         <v>1.523280364448053</v>
       </c>
       <c r="I34" t="n">
-        <v>5.152363441302818</v>
+        <v>5.152363441302819</v>
       </c>
       <c r="J34" t="n">
         <v>12.11303823549335</v>
@@ -33591,25 +33591,25 @@
         <v>26.21817829729455</v>
       </c>
       <c r="O34" t="n">
-        <v>24.21673119267721</v>
+        <v>24.21673119267722</v>
       </c>
       <c r="P34" t="n">
-        <v>20.72159710492522</v>
+        <v>20.72159710492523</v>
       </c>
       <c r="Q34" t="n">
         <v>14.34655975146319</v>
       </c>
       <c r="R34" t="n">
-        <v>7.703624419795562</v>
+        <v>7.703624419795564</v>
       </c>
       <c r="S34" t="n">
         <v>2.98581641988437</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7320468009106176</v>
+        <v>0.7320468009106177</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009345278309497258</v>
+        <v>0.00934527830949726</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3819510732859844</v>
+        <v>0.3819510732859845</v>
       </c>
       <c r="H35" t="n">
         <v>3.911656429290089</v>
@@ -33655,25 +33655,25 @@
         <v>14.72516875285793</v>
       </c>
       <c r="J35" t="n">
-        <v>32.41761990630635</v>
+        <v>32.41761990630636</v>
       </c>
       <c r="K35" t="n">
-        <v>48.58560883850208</v>
+        <v>48.58560883850209</v>
       </c>
       <c r="L35" t="n">
-        <v>60.27474399757804</v>
+        <v>60.27474399757805</v>
       </c>
       <c r="M35" t="n">
-        <v>67.06726639712765</v>
+        <v>67.06726639712767</v>
       </c>
       <c r="N35" t="n">
-        <v>68.15248488410147</v>
+        <v>68.15248488410148</v>
       </c>
       <c r="O35" t="n">
-        <v>64.35445889911395</v>
+        <v>64.35445889911396</v>
       </c>
       <c r="P35" t="n">
-        <v>54.92504177736621</v>
+        <v>54.92504177736622</v>
       </c>
       <c r="Q35" t="n">
         <v>41.24641896531188</v>
@@ -33728,31 +33728,31 @@
         <v>0.2043618407680625</v>
       </c>
       <c r="H36" t="n">
-        <v>1.973705146365235</v>
+        <v>1.973705146365236</v>
       </c>
       <c r="I36" t="n">
-        <v>7.036142324689871</v>
+        <v>7.036142324689872</v>
       </c>
       <c r="J36" t="n">
         <v>19.30771233326682</v>
       </c>
       <c r="K36" t="n">
-        <v>32.999955664727</v>
+        <v>32.99995566472701</v>
       </c>
       <c r="L36" t="n">
         <v>44.37251283869708</v>
       </c>
       <c r="M36" t="n">
-        <v>51.78062956653933</v>
+        <v>51.78062956653934</v>
       </c>
       <c r="N36" t="n">
-        <v>53.15110875309359</v>
+        <v>53.1511087530936</v>
       </c>
       <c r="O36" t="n">
-        <v>48.62288059712757</v>
+        <v>48.62288059712758</v>
       </c>
       <c r="P36" t="n">
-        <v>39.02414834806976</v>
+        <v>39.02414834806977</v>
       </c>
       <c r="Q36" t="n">
         <v>26.08660970927058</v>
@@ -33761,13 +33761,13 @@
         <v>12.68836060488024</v>
       </c>
       <c r="S36" t="n">
-        <v>3.795931559880456</v>
+        <v>3.795931559880457</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8237216301133744</v>
+        <v>0.8237216301133745</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01344485794526727</v>
+        <v>0.01344485794526728</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,7 +33810,7 @@
         <v>1.523280364448053</v>
       </c>
       <c r="I37" t="n">
-        <v>5.152363441302818</v>
+        <v>5.152363441302819</v>
       </c>
       <c r="J37" t="n">
         <v>12.11303823549335</v>
@@ -33828,25 +33828,25 @@
         <v>26.21817829729455</v>
       </c>
       <c r="O37" t="n">
-        <v>24.21673119267721</v>
+        <v>24.21673119267722</v>
       </c>
       <c r="P37" t="n">
-        <v>20.72159710492522</v>
+        <v>20.72159710492523</v>
       </c>
       <c r="Q37" t="n">
         <v>14.34655975146319</v>
       </c>
       <c r="R37" t="n">
-        <v>7.703624419795562</v>
+        <v>7.703624419795564</v>
       </c>
       <c r="S37" t="n">
         <v>2.98581641988437</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7320468009106176</v>
+        <v>0.7320468009106177</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009345278309497258</v>
+        <v>0.00934527830949726</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3819510732859844</v>
+        <v>0.3819510732859845</v>
       </c>
       <c r="H38" t="n">
         <v>3.911656429290089</v>
@@ -33892,25 +33892,25 @@
         <v>14.72516875285793</v>
       </c>
       <c r="J38" t="n">
-        <v>32.41761990630635</v>
+        <v>32.41761990630636</v>
       </c>
       <c r="K38" t="n">
-        <v>48.58560883850208</v>
+        <v>48.58560883850209</v>
       </c>
       <c r="L38" t="n">
-        <v>60.27474399757804</v>
+        <v>60.27474399757805</v>
       </c>
       <c r="M38" t="n">
-        <v>67.06726639712765</v>
+        <v>67.06726639712767</v>
       </c>
       <c r="N38" t="n">
-        <v>68.15248488410147</v>
+        <v>68.15248488410148</v>
       </c>
       <c r="O38" t="n">
-        <v>64.35445889911395</v>
+        <v>64.35445889911396</v>
       </c>
       <c r="P38" t="n">
-        <v>54.92504177736621</v>
+        <v>54.92504177736622</v>
       </c>
       <c r="Q38" t="n">
         <v>41.24641896531188</v>
@@ -33965,31 +33965,31 @@
         <v>0.2043618407680625</v>
       </c>
       <c r="H39" t="n">
-        <v>1.973705146365235</v>
+        <v>1.973705146365236</v>
       </c>
       <c r="I39" t="n">
-        <v>7.036142324689871</v>
+        <v>7.036142324689872</v>
       </c>
       <c r="J39" t="n">
         <v>19.30771233326682</v>
       </c>
       <c r="K39" t="n">
-        <v>32.999955664727</v>
+        <v>32.99995566472701</v>
       </c>
       <c r="L39" t="n">
         <v>44.37251283869708</v>
       </c>
       <c r="M39" t="n">
-        <v>51.78062956653933</v>
+        <v>51.78062956653934</v>
       </c>
       <c r="N39" t="n">
-        <v>53.15110875309359</v>
+        <v>53.1511087530936</v>
       </c>
       <c r="O39" t="n">
-        <v>48.62288059712757</v>
+        <v>48.62288059712758</v>
       </c>
       <c r="P39" t="n">
-        <v>39.02414834806976</v>
+        <v>39.02414834806977</v>
       </c>
       <c r="Q39" t="n">
         <v>26.08660970927058</v>
@@ -33998,13 +33998,13 @@
         <v>12.68836060488024</v>
       </c>
       <c r="S39" t="n">
-        <v>3.795931559880456</v>
+        <v>3.795931559880457</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8237216301133744</v>
+        <v>0.8237216301133745</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01344485794526727</v>
+        <v>0.01344485794526728</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,7 +34047,7 @@
         <v>1.523280364448053</v>
       </c>
       <c r="I40" t="n">
-        <v>5.152363441302818</v>
+        <v>5.152363441302819</v>
       </c>
       <c r="J40" t="n">
         <v>12.11303823549335</v>
@@ -34065,25 +34065,25 @@
         <v>26.21817829729455</v>
       </c>
       <c r="O40" t="n">
-        <v>24.21673119267721</v>
+        <v>24.21673119267722</v>
       </c>
       <c r="P40" t="n">
-        <v>20.72159710492522</v>
+        <v>20.72159710492523</v>
       </c>
       <c r="Q40" t="n">
         <v>14.34655975146319</v>
       </c>
       <c r="R40" t="n">
-        <v>7.703624419795562</v>
+        <v>7.703624419795564</v>
       </c>
       <c r="S40" t="n">
         <v>2.98581641988437</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7320468009106176</v>
+        <v>0.7320468009106177</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009345278309497258</v>
+        <v>0.00934527830949726</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3819510732859844</v>
+        <v>0.3819510732859845</v>
       </c>
       <c r="H41" t="n">
         <v>3.911656429290089</v>
@@ -34129,25 +34129,25 @@
         <v>14.72516875285793</v>
       </c>
       <c r="J41" t="n">
-        <v>32.41761990630635</v>
+        <v>32.41761990630636</v>
       </c>
       <c r="K41" t="n">
-        <v>48.58560883850208</v>
+        <v>48.58560883850209</v>
       </c>
       <c r="L41" t="n">
-        <v>60.27474399757804</v>
+        <v>60.27474399757805</v>
       </c>
       <c r="M41" t="n">
-        <v>67.06726639712765</v>
+        <v>67.06726639712767</v>
       </c>
       <c r="N41" t="n">
-        <v>68.15248488410147</v>
+        <v>68.15248488410148</v>
       </c>
       <c r="O41" t="n">
-        <v>64.35445889911395</v>
+        <v>64.35445889911396</v>
       </c>
       <c r="P41" t="n">
-        <v>54.92504177736621</v>
+        <v>54.92504177736622</v>
       </c>
       <c r="Q41" t="n">
         <v>41.24641896531188</v>
@@ -34202,31 +34202,31 @@
         <v>0.2043618407680625</v>
       </c>
       <c r="H42" t="n">
-        <v>1.973705146365235</v>
+        <v>1.973705146365236</v>
       </c>
       <c r="I42" t="n">
-        <v>7.036142324689871</v>
+        <v>7.036142324689872</v>
       </c>
       <c r="J42" t="n">
         <v>19.30771233326682</v>
       </c>
       <c r="K42" t="n">
-        <v>32.999955664727</v>
+        <v>32.99995566472701</v>
       </c>
       <c r="L42" t="n">
         <v>44.37251283869708</v>
       </c>
       <c r="M42" t="n">
-        <v>51.78062956653933</v>
+        <v>51.78062956653934</v>
       </c>
       <c r="N42" t="n">
-        <v>53.15110875309359</v>
+        <v>53.1511087530936</v>
       </c>
       <c r="O42" t="n">
-        <v>48.62288059712757</v>
+        <v>48.62288059712758</v>
       </c>
       <c r="P42" t="n">
-        <v>39.02414834806976</v>
+        <v>39.02414834806977</v>
       </c>
       <c r="Q42" t="n">
         <v>26.08660970927058</v>
@@ -34235,13 +34235,13 @@
         <v>12.68836060488024</v>
       </c>
       <c r="S42" t="n">
-        <v>3.795931559880456</v>
+        <v>3.795931559880457</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8237216301133744</v>
+        <v>0.8237216301133745</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01344485794526727</v>
+        <v>0.01344485794526728</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,7 +34284,7 @@
         <v>1.523280364448053</v>
       </c>
       <c r="I43" t="n">
-        <v>5.152363441302818</v>
+        <v>5.152363441302819</v>
       </c>
       <c r="J43" t="n">
         <v>12.11303823549335</v>
@@ -34302,25 +34302,25 @@
         <v>26.21817829729455</v>
       </c>
       <c r="O43" t="n">
-        <v>24.21673119267721</v>
+        <v>24.21673119267722</v>
       </c>
       <c r="P43" t="n">
-        <v>20.72159710492522</v>
+        <v>20.72159710492523</v>
       </c>
       <c r="Q43" t="n">
         <v>14.34655975146319</v>
       </c>
       <c r="R43" t="n">
-        <v>7.703624419795562</v>
+        <v>7.703624419795564</v>
       </c>
       <c r="S43" t="n">
         <v>2.98581641988437</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7320468009106176</v>
+        <v>0.7320468009106177</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009345278309497258</v>
+        <v>0.00934527830949726</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3819510732859844</v>
+        <v>0.3819510732859845</v>
       </c>
       <c r="H44" t="n">
         <v>3.911656429290089</v>
@@ -34366,25 +34366,25 @@
         <v>14.72516875285793</v>
       </c>
       <c r="J44" t="n">
-        <v>32.41761990630635</v>
+        <v>32.41761990630636</v>
       </c>
       <c r="K44" t="n">
-        <v>48.58560883850208</v>
+        <v>48.58560883850209</v>
       </c>
       <c r="L44" t="n">
-        <v>60.27474399757804</v>
+        <v>60.27474399757805</v>
       </c>
       <c r="M44" t="n">
-        <v>67.06726639712765</v>
+        <v>67.06726639712767</v>
       </c>
       <c r="N44" t="n">
-        <v>68.15248488410147</v>
+        <v>68.15248488410148</v>
       </c>
       <c r="O44" t="n">
-        <v>64.35445889911395</v>
+        <v>64.35445889911396</v>
       </c>
       <c r="P44" t="n">
-        <v>54.92504177736621</v>
+        <v>54.92504177736622</v>
       </c>
       <c r="Q44" t="n">
         <v>41.24641896531188</v>
@@ -34439,31 +34439,31 @@
         <v>0.2043618407680625</v>
       </c>
       <c r="H45" t="n">
-        <v>1.973705146365235</v>
+        <v>1.973705146365236</v>
       </c>
       <c r="I45" t="n">
-        <v>7.036142324689871</v>
+        <v>7.036142324689872</v>
       </c>
       <c r="J45" t="n">
         <v>19.30771233326682</v>
       </c>
       <c r="K45" t="n">
-        <v>32.999955664727</v>
+        <v>32.99995566472701</v>
       </c>
       <c r="L45" t="n">
         <v>44.37251283869708</v>
       </c>
       <c r="M45" t="n">
-        <v>51.78062956653933</v>
+        <v>51.78062956653934</v>
       </c>
       <c r="N45" t="n">
-        <v>53.15110875309359</v>
+        <v>53.1511087530936</v>
       </c>
       <c r="O45" t="n">
-        <v>48.62288059712757</v>
+        <v>48.62288059712758</v>
       </c>
       <c r="P45" t="n">
-        <v>39.02414834806976</v>
+        <v>39.02414834806977</v>
       </c>
       <c r="Q45" t="n">
         <v>26.08660970927058</v>
@@ -34472,13 +34472,13 @@
         <v>12.68836060488024</v>
       </c>
       <c r="S45" t="n">
-        <v>3.795931559880456</v>
+        <v>3.795931559880457</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8237216301133744</v>
+        <v>0.8237216301133745</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01344485794526727</v>
+        <v>0.01344485794526728</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,7 +34521,7 @@
         <v>1.523280364448053</v>
       </c>
       <c r="I46" t="n">
-        <v>5.152363441302818</v>
+        <v>5.152363441302819</v>
       </c>
       <c r="J46" t="n">
         <v>12.11303823549335</v>
@@ -34539,25 +34539,25 @@
         <v>26.21817829729455</v>
       </c>
       <c r="O46" t="n">
-        <v>24.21673119267721</v>
+        <v>24.21673119267722</v>
       </c>
       <c r="P46" t="n">
-        <v>20.72159710492522</v>
+        <v>20.72159710492523</v>
       </c>
       <c r="Q46" t="n">
         <v>14.34655975146319</v>
       </c>
       <c r="R46" t="n">
-        <v>7.703624419795562</v>
+        <v>7.703624419795564</v>
       </c>
       <c r="S46" t="n">
         <v>2.98581641988437</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7320468009106176</v>
+        <v>0.7320468009106177</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009345278309497258</v>
+        <v>0.00934527830949726</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34702,22 +34702,22 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>90.41227022968843</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="O2" t="n">
-        <v>94.21910266041215</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="P2" t="n">
-        <v>94.21910266041215</v>
+        <v>90.41227022968785</v>
       </c>
       <c r="Q2" t="n">
-        <v>94.21910266041215</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
-        <v>94.21910266041215</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="L3" t="n">
-        <v>94.21910266041215</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>29.54949595382361</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>29.54949595382304</v>
       </c>
       <c r="Q3" t="n">
-        <v>94.21910266041215</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>33.9436239844883</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>56.46864624520013</v>
+        <v>26.80774121136682</v>
       </c>
       <c r="M4" t="n">
-        <v>94.21910266041215</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="N4" t="n">
-        <v>94.21910266041215</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="O4" t="n">
-        <v>94.21910266041215</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>72.72580229576329</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>94.21910266041215</v>
+        <v>90.41227022968783</v>
       </c>
       <c r="M5" t="n">
-        <v>94.21910266041215</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="N5" t="n">
-        <v>94.21910266041215</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="P5" t="n">
-        <v>17.68646793392515</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
-        <v>94.21910266041215</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="M6" t="n">
-        <v>29.54949595382361</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>94.21910266041215</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="P6" t="n">
-        <v>94.21910266041215</v>
+        <v>29.54949595382304</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35097,16 +35097,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>90.41227022968843</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="M7" t="n">
-        <v>94.21910266041215</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="N7" t="n">
-        <v>94.21910266041215</v>
+        <v>94.21910266041152</v>
       </c>
       <c r="O7" t="n">
-        <v>94.21910266041215</v>
+        <v>90.41227022968785</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>319.876284909321</v>
+        <v>312.771495120085</v>
       </c>
       <c r="M8" t="n">
-        <v>318.7428366174231</v>
+        <v>319.8762849093202</v>
       </c>
       <c r="N8" t="n">
-        <v>319.876284909321</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>147.5867079578383</v>
       </c>
       <c r="L9" t="n">
-        <v>306.9519905695504</v>
+        <v>319.8762849093202</v>
       </c>
       <c r="M9" t="n">
-        <v>319.876284909321</v>
+        <v>319.8762849093202</v>
       </c>
       <c r="N9" t="n">
-        <v>319.876284909321</v>
+        <v>319.8762849093202</v>
       </c>
       <c r="O9" t="n">
-        <v>319.876284909321</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>105.1434222020692</v>
+        <v>105.1434222020696</v>
       </c>
       <c r="K11" t="n">
-        <v>291.1516412069688</v>
+        <v>291.1516412069695</v>
       </c>
       <c r="L11" t="n">
-        <v>411.6741107500481</v>
+        <v>411.674110750049</v>
       </c>
       <c r="M11" t="n">
-        <v>464.2785454406499</v>
+        <v>464.2785454406508</v>
       </c>
       <c r="N11" t="n">
-        <v>450.3053724474497</v>
+        <v>450.3053724474507</v>
       </c>
       <c r="O11" t="n">
-        <v>372.4398977605615</v>
+        <v>372.4398977605624</v>
       </c>
       <c r="P11" t="n">
-        <v>285.3865533491363</v>
+        <v>285.3865533491372</v>
       </c>
       <c r="Q11" t="n">
-        <v>136.6325338001971</v>
+        <v>136.6325338001977</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>80.17048660913161</v>
       </c>
       <c r="K12" t="n">
-        <v>264.8085946144121</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L12" t="n">
-        <v>413.8895281620456</v>
+        <v>413.8895281620462</v>
       </c>
       <c r="M12" t="n">
-        <v>541.7133098798986</v>
+        <v>541.7133098798994</v>
       </c>
       <c r="N12" t="n">
-        <v>322.1927633781418</v>
+        <v>242.0222767690058</v>
       </c>
       <c r="O12" t="n">
-        <v>444.7844470457641</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P12" t="n">
-        <v>344.1715415558442</v>
+        <v>344.1715415558448</v>
       </c>
       <c r="Q12" t="n">
-        <v>185.4518923209815</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.25367603694598</v>
+        <v>41.25367603694621</v>
       </c>
       <c r="K13" t="n">
-        <v>142.4463707851389</v>
+        <v>142.4463707851393</v>
       </c>
       <c r="L13" t="n">
-        <v>215.6927301058557</v>
+        <v>215.6927301058562</v>
       </c>
       <c r="M13" t="n">
-        <v>234.6394360413818</v>
+        <v>234.6394360413823</v>
       </c>
       <c r="N13" t="n">
-        <v>234.4340093185143</v>
+        <v>234.4340093185147</v>
       </c>
       <c r="O13" t="n">
-        <v>212.2722639776236</v>
+        <v>212.272263977624</v>
       </c>
       <c r="P13" t="n">
-        <v>172.9234301246677</v>
+        <v>172.9234301246681</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.79189582003693</v>
+        <v>64.7918958200372</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>80.17048660913161</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.8085946144125</v>
+        <v>17.42030366054468</v>
       </c>
       <c r="L15" t="n">
         <v>413.8895281620462</v>
@@ -35735,7 +35735,7 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N15" t="n">
-        <v>242.0222767690054</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O15" t="n">
         <v>444.7844470457648</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.25367603694614</v>
+        <v>41.25367603694621</v>
       </c>
       <c r="K16" t="n">
-        <v>142.4463707851392</v>
+        <v>142.4463707851393</v>
       </c>
       <c r="L16" t="n">
-        <v>215.6927301058561</v>
+        <v>215.6927301058562</v>
       </c>
       <c r="M16" t="n">
-        <v>234.6394360413822</v>
+        <v>234.6394360413823</v>
       </c>
       <c r="N16" t="n">
         <v>234.4340093185147</v>
       </c>
       <c r="O16" t="n">
-        <v>212.2722639776239</v>
+        <v>212.272263977624</v>
       </c>
       <c r="P16" t="n">
-        <v>172.923430124668</v>
+        <v>172.9234301246681</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.79189582003713</v>
+        <v>64.7918958200372</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>105.1434222020697</v>
+        <v>105.1434222020696</v>
       </c>
       <c r="K17" t="n">
-        <v>291.1516412069697</v>
+        <v>291.1516412069695</v>
       </c>
       <c r="L17" t="n">
-        <v>411.6741107500492</v>
+        <v>411.674110750049</v>
       </c>
       <c r="M17" t="n">
-        <v>464.278545440651</v>
+        <v>464.2785454406509</v>
       </c>
       <c r="N17" t="n">
-        <v>450.3053724474509</v>
+        <v>450.3053724474507</v>
       </c>
       <c r="O17" t="n">
-        <v>372.4398977605626</v>
+        <v>372.4398977605624</v>
       </c>
       <c r="P17" t="n">
-        <v>285.3865533491373</v>
+        <v>285.3865533491372</v>
       </c>
       <c r="Q17" t="n">
-        <v>136.6325338001979</v>
+        <v>136.6325338001977</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>80.17048660913161</v>
       </c>
       <c r="K18" t="n">
-        <v>202.8721959815273</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L18" t="n">
-        <v>413.8895281620464</v>
+        <v>413.8895281620462</v>
       </c>
       <c r="M18" t="n">
-        <v>541.7133098798995</v>
+        <v>541.7133098798994</v>
       </c>
       <c r="N18" t="n">
-        <v>569.581054332005</v>
+        <v>242.0222767690058</v>
       </c>
       <c r="O18" t="n">
-        <v>444.784447045765</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P18" t="n">
-        <v>344.1715415558449</v>
+        <v>344.1715415558448</v>
       </c>
       <c r="Q18" t="n">
-        <v>-1.837363033884704e-12</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>53.8490667837175</v>
+        <v>53.84906678371743</v>
       </c>
       <c r="L19" t="n">
-        <v>127.0954261044344</v>
+        <v>127.0954261044343</v>
       </c>
       <c r="M19" t="n">
-        <v>146.0421320399605</v>
+        <v>146.0421320399604</v>
       </c>
       <c r="N19" t="n">
-        <v>145.836705317093</v>
+        <v>145.8367053170929</v>
       </c>
       <c r="O19" t="n">
-        <v>123.6749599762022</v>
+        <v>123.6749599762021</v>
       </c>
       <c r="P19" t="n">
-        <v>84.3261261232463</v>
+        <v>84.32612612324623</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>80.17048660913161</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.8085946144125</v>
@@ -36215,10 +36215,10 @@
         <v>444.7844470457648</v>
       </c>
       <c r="P21" t="n">
-        <v>16.61276399284572</v>
+        <v>282.2351429229594</v>
       </c>
       <c r="Q21" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36294,7 +36294,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P22" t="n">
-        <v>84.32612612324624</v>
+        <v>84.32612612324623</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>264.8085946144125</v>
       </c>
       <c r="L24" t="n">
-        <v>413.8895281620462</v>
+        <v>86.33075059904672</v>
       </c>
       <c r="M24" t="n">
         <v>541.7133098798994</v>
       </c>
       <c r="N24" t="n">
-        <v>242.0222767690058</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O24" t="n">
         <v>444.7844470457648</v>
@@ -36531,7 +36531,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P25" t="n">
-        <v>84.32612612324624</v>
+        <v>84.32612612324623</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36604,13 +36604,13 @@
         <v>570.8619272871388</v>
       </c>
       <c r="N26" t="n">
-        <v>556.8887542939385</v>
+        <v>556.8887542939386</v>
       </c>
       <c r="O26" t="n">
         <v>479.0232796070503</v>
       </c>
       <c r="P26" t="n">
-        <v>391.9699351956251</v>
+        <v>391.9699351956246</v>
       </c>
       <c r="Q26" t="n">
         <v>243.2159156466856</v>
@@ -36753,7 +36753,7 @@
         <v>59.23975388201224</v>
       </c>
       <c r="K28" t="n">
-        <v>138.4801819660129</v>
+        <v>160.4324486302053</v>
       </c>
       <c r="L28" t="n">
         <v>233.6788079509222</v>
@@ -36765,7 +36765,7 @@
         <v>252.4200871635808</v>
       </c>
       <c r="O28" t="n">
-        <v>230.25834182269</v>
+        <v>208.3060751584974</v>
       </c>
       <c r="P28" t="n">
         <v>190.9095079697341</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>211.7268040485576</v>
+        <v>211.7268040485575</v>
       </c>
       <c r="K29" t="n">
         <v>397.7350230534574</v>
@@ -36850,10 +36850,10 @@
         <v>391.9699351956251</v>
       </c>
       <c r="Q29" t="n">
-        <v>243.2159156466857</v>
+        <v>243.2159156466856</v>
       </c>
       <c r="R29" t="n">
-        <v>40.84421231468349</v>
+        <v>40.84421231468346</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.23975388201227</v>
+        <v>59.23975388201224</v>
       </c>
       <c r="K31" t="n">
-        <v>138.4801819660119</v>
+        <v>160.4324486302053</v>
       </c>
       <c r="L31" t="n">
-        <v>233.6788079509222</v>
+        <v>211.7265412867295</v>
       </c>
       <c r="M31" t="n">
         <v>252.6255138864483</v>
@@ -37005,10 +37005,10 @@
         <v>230.2583418226901</v>
       </c>
       <c r="P31" t="n">
-        <v>190.9095079697342</v>
+        <v>190.9095079697341</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.77797366510326</v>
+        <v>82.77797366510323</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-1.406731072817976e-12</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>105.1434222020696</v>
@@ -37075,7 +37075,7 @@
         <v>411.674110750049</v>
       </c>
       <c r="M32" t="n">
-        <v>464.2785454406508</v>
+        <v>464.2785454406509</v>
       </c>
       <c r="N32" t="n">
         <v>450.3053724474507</v>
@@ -37090,7 +37090,7 @@
         <v>136.6325338001977</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>-1.378022275413528e-12</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>411.674110750049</v>
       </c>
       <c r="M35" t="n">
-        <v>464.2785454406508</v>
+        <v>464.2785454406509</v>
       </c>
       <c r="N35" t="n">
         <v>450.3053724474507</v>
@@ -37394,7 +37394,7 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N36" t="n">
-        <v>507.6446556991198</v>
+        <v>507.6446556991195</v>
       </c>
       <c r="O36" t="n">
         <v>444.7844470457648</v>
@@ -37549,7 +37549,7 @@
         <v>411.674110750049</v>
       </c>
       <c r="M38" t="n">
-        <v>464.2785454406508</v>
+        <v>464.2785454406509</v>
       </c>
       <c r="N38" t="n">
         <v>450.3053724474507</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>80.17048660913161</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.8085946144125</v>
@@ -37631,7 +37631,7 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N39" t="n">
-        <v>242.0222767690058</v>
+        <v>507.6446556991191</v>
       </c>
       <c r="O39" t="n">
         <v>444.7844470457648</v>
@@ -37640,7 +37640,7 @@
         <v>344.1715415558448</v>
       </c>
       <c r="Q39" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>411.674110750049</v>
       </c>
       <c r="M41" t="n">
-        <v>464.2785454406508</v>
+        <v>464.2785454406509</v>
       </c>
       <c r="N41" t="n">
         <v>450.3053724474507</v>
@@ -37868,16 +37868,16 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N42" t="n">
-        <v>569.5810543320048</v>
+        <v>242.0222767690058</v>
       </c>
       <c r="O42" t="n">
         <v>444.7844470457648</v>
       </c>
       <c r="P42" t="n">
-        <v>202.0646563138272</v>
+        <v>344.1715415558448</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>411.674110750049</v>
       </c>
       <c r="M44" t="n">
-        <v>464.2785454406508</v>
+        <v>464.2785454406509</v>
       </c>
       <c r="N44" t="n">
         <v>450.3053724474507</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>80.17048660913161</v>
       </c>
       <c r="K45" t="n">
-        <v>17.42030366054514</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L45" t="n">
         <v>413.8895281620462</v>
@@ -38105,7 +38105,7 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N45" t="n">
-        <v>569.5810543320048</v>
+        <v>242.0222767690054</v>
       </c>
       <c r="O45" t="n">
         <v>444.7844470457648</v>
